--- a/LISTA CENTROS/REGISTRO DE ORGANISMOS COLABORADORES ACREDITADOS DEL SENAME LEY Nº 20.032 AL 30 DE SEPTIEMBRE DE 2020.xlsx
+++ b/LISTA CENTROS/REGISTRO DE ORGANISMOS COLABORADORES ACREDITADOS DEL SENAME LEY Nº 20.032 AL 30 DE SEPTIEMBRE DE 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATASENAME\LISTA CENTROS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-SENAME\LISTA CENTROS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0D1FAD-A6EC-44B2-9A33-A2C3450D0DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61DA20-A091-447A-8A60-175BFF7C6B0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E78D5F48-FDDE-43FC-A31B-DF64BE00D101}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E78D5F48-FDDE-43FC-A31B-DF64BE00D101}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5500,9 +5500,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -5510,7 +5508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5541,18 +5539,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -5569,11 +5560,173 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5584,6 +5737,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{601E19AD-F589-41D6-B3A5-23B43F0C543C}" name="Organismos" displayName="Organismos" ref="A2:F868" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="7">
+  <autoFilter ref="A2:F868" xr:uid="{2E0A50D4-15CB-43EB-8FAE-BEC5F3B95140}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8CA07C20-310B-4632-9E52-06D902ED3917}" name="Codreg" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{86F7179D-5F81-4631-9F1D-9F9642ACAE02}" name="REGIÓN" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5134ACA7-6BEC-4026-9CBD-D9B54E5623BE}" name="ORGANISMOS" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D0ACE309-D0B7-41BE-B414-E71680D23C68}" name="RUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FA70FD47-83C8-4021-BDF9-9D1DEDABCB62}" name="FOLIO" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5BB3FF05-251E-42B0-A52D-ADA20208E6AD}" name="AÑO INGRESO REGISTRO" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5885,38 +6053,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44AFF68-BD3E-4ECC-A1F1-2E65D0F39678}">
   <dimension ref="A2:F869"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A800" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
     <col min="2" max="2" width="24" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="2"/>
+    <col min="3" max="3" width="46.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="21" t="s">
         <v>1749</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5933,7 +6101,7 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>7627</v>
       </c>
       <c r="F3" s="7">
@@ -5953,7 +6121,7 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>7403</v>
       </c>
       <c r="F4" s="7">
@@ -5973,14 +6141,14 @@
       <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>7589</v>
       </c>
       <c r="F5" s="7">
         <v>42352</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="25.95" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>13</v>
       </c>
@@ -5993,14 +6161,14 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>6902</v>
       </c>
       <c r="F6" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>13</v>
       </c>
@@ -6013,7 +6181,7 @@
       <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>7379</v>
       </c>
       <c r="F7" s="7">
@@ -6033,7 +6201,7 @@
       <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>1900</v>
       </c>
       <c r="F8" s="7">
@@ -6053,14 +6221,14 @@
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>50</v>
       </c>
       <c r="F9" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -6073,7 +6241,7 @@
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>6490</v>
       </c>
       <c r="F10" s="7">
@@ -6093,7 +6261,7 @@
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>1910</v>
       </c>
       <c r="F11" s="7">
@@ -6113,7 +6281,7 @@
       <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>25</v>
       </c>
       <c r="F12" s="7">
@@ -6133,14 +6301,14 @@
       <c r="D13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>1850</v>
       </c>
       <c r="F13" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -6153,7 +6321,7 @@
       <c r="D14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>5550</v>
       </c>
       <c r="F14" s="7">
@@ -6173,14 +6341,14 @@
       <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>6928</v>
       </c>
       <c r="F15" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
@@ -6193,7 +6361,7 @@
       <c r="D16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>100</v>
       </c>
       <c r="F16" s="7">
@@ -6213,7 +6381,7 @@
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>400</v>
       </c>
       <c r="F17" s="7">
@@ -6233,7 +6401,7 @@
       <c r="D18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>225</v>
       </c>
       <c r="F18" s="7">
@@ -6253,14 +6421,14 @@
       <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>7070</v>
       </c>
       <c r="F19" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -6273,7 +6441,7 @@
       <c r="D20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>7333</v>
       </c>
       <c r="F20" s="7">
@@ -6293,14 +6461,14 @@
       <c r="D21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>250</v>
       </c>
       <c r="F21" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -6313,7 +6481,7 @@
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>450</v>
       </c>
       <c r="F22" s="7">
@@ -6333,7 +6501,7 @@
       <c r="D23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>870</v>
       </c>
       <c r="F23" s="7">
@@ -6353,14 +6521,14 @@
       <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>6540</v>
       </c>
       <c r="F24" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>13</v>
       </c>
@@ -6373,7 +6541,7 @@
       <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>1200</v>
       </c>
       <c r="F25" s="7">
@@ -6393,7 +6561,7 @@
       <c r="D26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>3844</v>
       </c>
       <c r="F26" s="7">
@@ -6413,14 +6581,14 @@
       <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>6760</v>
       </c>
       <c r="F27" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -6433,7 +6601,7 @@
       <c r="D28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>7015</v>
       </c>
       <c r="F28" s="7">
@@ -6453,7 +6621,7 @@
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>900</v>
       </c>
       <c r="F29" s="7">
@@ -6473,7 +6641,7 @@
       <c r="D30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="16">
         <v>950</v>
       </c>
       <c r="F30" s="7">
@@ -6493,7 +6661,7 @@
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="16">
         <v>1700</v>
       </c>
       <c r="F31" s="7">
@@ -6513,7 +6681,7 @@
       <c r="D32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <v>1050</v>
       </c>
       <c r="F32" s="7">
@@ -6533,7 +6701,7 @@
       <c r="D33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="16">
         <v>6861</v>
       </c>
       <c r="F33" s="7">
@@ -6553,7 +6721,7 @@
       <c r="D34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="16">
         <v>1100</v>
       </c>
       <c r="F34" s="7">
@@ -6573,14 +6741,14 @@
       <c r="D35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="16">
         <v>1300</v>
       </c>
       <c r="F35" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -6593,14 +6761,14 @@
       <c r="D36" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="16">
         <v>1150</v>
       </c>
       <c r="F36" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>13</v>
       </c>
@@ -6613,7 +6781,7 @@
       <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="16">
         <v>1350</v>
       </c>
       <c r="F37" s="7">
@@ -6633,14 +6801,14 @@
       <c r="D38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="16">
         <v>1000</v>
       </c>
       <c r="F38" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -6653,7 +6821,7 @@
       <c r="D39" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <v>1325</v>
       </c>
       <c r="F39" s="7">
@@ -6673,7 +6841,7 @@
       <c r="D40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="16">
         <v>1225</v>
       </c>
       <c r="F40" s="7">
@@ -6693,7 +6861,7 @@
       <c r="D41" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <v>1250</v>
       </c>
       <c r="F41" s="7">
@@ -6713,14 +6881,14 @@
       <c r="D42" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="16">
         <v>1500</v>
       </c>
       <c r="F42" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>13</v>
       </c>
@@ -6733,14 +6901,14 @@
       <c r="D43" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="16">
         <v>1450</v>
       </c>
       <c r="F43" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>13</v>
       </c>
@@ -6753,14 +6921,14 @@
       <c r="D44" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="16">
         <v>1550</v>
       </c>
       <c r="F44" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>13</v>
       </c>
@@ -6773,7 +6941,7 @@
       <c r="D45" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="16">
         <v>1600</v>
       </c>
       <c r="F45" s="7">
@@ -6793,7 +6961,7 @@
       <c r="D46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="16">
         <v>1650</v>
       </c>
       <c r="F46" s="7">
@@ -6813,14 +6981,14 @@
       <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="16">
         <v>6909</v>
       </c>
       <c r="F47" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -6833,7 +7001,7 @@
       <c r="D48" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="16">
         <v>1750</v>
       </c>
       <c r="F48" s="7">
@@ -6853,7 +7021,7 @@
       <c r="D49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="16">
         <v>7063</v>
       </c>
       <c r="F49" s="7">
@@ -6873,7 +7041,7 @@
       <c r="D50" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="16">
         <v>7013</v>
       </c>
       <c r="F50" s="7">
@@ -6893,7 +7061,7 @@
       <c r="D51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="16">
         <v>7657</v>
       </c>
       <c r="F51" s="7">
@@ -6913,7 +7081,7 @@
       <c r="D52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="16">
         <v>7461</v>
       </c>
       <c r="F52" s="7">
@@ -6933,7 +7101,7 @@
       <c r="D53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <v>7664</v>
       </c>
       <c r="F53" s="7">
@@ -6953,7 +7121,7 @@
       <c r="D54" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="16">
         <v>7114</v>
       </c>
       <c r="F54" s="7">
@@ -6973,14 +7141,14 @@
       <c r="D55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="16">
         <v>2000</v>
       </c>
       <c r="F55" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>13</v>
       </c>
@@ -6993,14 +7161,14 @@
       <c r="D56" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="16">
         <v>6988</v>
       </c>
       <c r="F56" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -7013,14 +7181,14 @@
       <c r="D57" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="16">
         <v>6871</v>
       </c>
       <c r="F57" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>13</v>
       </c>
@@ -7033,14 +7201,14 @@
       <c r="D58" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="16">
         <v>7003</v>
       </c>
       <c r="F58" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>13</v>
       </c>
@@ -7053,14 +7221,14 @@
       <c r="D59" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="16">
         <v>7608</v>
       </c>
       <c r="F59" s="7">
         <v>42538</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>1</v>
       </c>
@@ -7073,14 +7241,14 @@
       <c r="D60" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="16">
         <v>6930</v>
       </c>
       <c r="F60" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>13</v>
       </c>
@@ -7093,14 +7261,14 @@
       <c r="D61" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="16">
         <v>7361</v>
       </c>
       <c r="F61" s="7">
         <v>39261</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>9</v>
       </c>
@@ -7113,7 +7281,7 @@
       <c r="D62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="16">
         <v>6971</v>
       </c>
       <c r="F62" s="7">
@@ -7133,14 +7301,14 @@
       <c r="D63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="16">
         <v>7360</v>
       </c>
       <c r="F63" s="7">
         <v>39261</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -7153,7 +7321,7 @@
       <c r="D64" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="16">
         <v>7077</v>
       </c>
       <c r="F64" s="7">
@@ -7173,14 +7341,14 @@
       <c r="D65" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="16">
         <v>7102</v>
       </c>
       <c r="F65" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>13</v>
       </c>
@@ -7193,7 +7361,7 @@
       <c r="D66" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="16">
         <v>7242</v>
       </c>
       <c r="F66" s="7">
@@ -7213,7 +7381,7 @@
       <c r="D67" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="16">
         <v>6934</v>
       </c>
       <c r="F67" s="7">
@@ -7233,14 +7401,14 @@
       <c r="D68" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="16">
         <v>7459</v>
       </c>
       <c r="F68" s="7">
         <v>40882</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>15</v>
       </c>
@@ -7253,14 +7421,14 @@
       <c r="D69" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="16">
         <v>650</v>
       </c>
       <c r="F69" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>2</v>
       </c>
@@ -7273,14 +7441,14 @@
       <c r="D70" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="16">
         <v>7159</v>
       </c>
       <c r="F70" s="7">
         <v>38414</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>16</v>
       </c>
@@ -7293,14 +7461,14 @@
       <c r="D71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="16">
         <v>6866</v>
       </c>
       <c r="F71" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>13</v>
       </c>
@@ -7313,7 +7481,7 @@
       <c r="D72" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="16">
         <v>7399</v>
       </c>
       <c r="F72" s="7">
@@ -7333,14 +7501,14 @@
       <c r="D73" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E73" s="16">
         <v>6912</v>
       </c>
       <c r="F73" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>1</v>
       </c>
@@ -7353,7 +7521,7 @@
       <c r="D74" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="16">
         <v>6947</v>
       </c>
       <c r="F74" s="7">
@@ -7373,7 +7541,7 @@
       <c r="D75" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="16">
         <v>6873</v>
       </c>
       <c r="F75" s="7">
@@ -7393,7 +7561,7 @@
       <c r="D76" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="16">
         <v>7519</v>
       </c>
       <c r="F76" s="7">
@@ -7413,7 +7581,7 @@
       <c r="D77" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="16">
         <v>7462</v>
       </c>
       <c r="F77" s="7">
@@ -7433,14 +7601,14 @@
       <c r="D78" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="16">
         <v>7652</v>
       </c>
       <c r="F78" s="7">
         <v>43307</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>9</v>
       </c>
@@ -7453,14 +7621,14 @@
       <c r="D79" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="16">
         <v>7671</v>
       </c>
       <c r="F79" s="7">
         <v>43516</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>8</v>
       </c>
@@ -7473,7 +7641,7 @@
       <c r="D80" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="16">
         <v>850</v>
       </c>
       <c r="F80" s="7">
@@ -7493,7 +7661,7 @@
       <c r="D81" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="16">
         <v>7160</v>
       </c>
       <c r="F81" s="7">
@@ -7513,7 +7681,7 @@
       <c r="D82" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="16">
         <v>2200</v>
       </c>
       <c r="F82" s="7">
@@ -7533,14 +7701,14 @@
       <c r="D83" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="16">
         <v>7605</v>
       </c>
       <c r="F83" s="7">
         <v>42472</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>8</v>
       </c>
@@ -7553,7 +7721,7 @@
       <c r="D84" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="16">
         <v>7639</v>
       </c>
       <c r="F84" s="7">
@@ -7573,14 +7741,14 @@
       <c r="D85" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="16">
         <v>7707</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>13</v>
       </c>
@@ -7593,7 +7761,7 @@
       <c r="D86" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="16">
         <v>7406</v>
       </c>
       <c r="F86" s="7">
@@ -7613,14 +7781,14 @@
       <c r="D87" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="16">
         <v>6889</v>
       </c>
       <c r="F87" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>13</v>
       </c>
@@ -7633,14 +7801,14 @@
       <c r="D88" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="16">
         <v>3842</v>
       </c>
       <c r="F88" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>8</v>
       </c>
@@ -7653,14 +7821,14 @@
       <c r="D89" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="16">
         <v>7349</v>
       </c>
       <c r="F89" s="7">
         <v>39162</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>15</v>
       </c>
@@ -7673,14 +7841,14 @@
       <c r="D90" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="16">
         <v>7448</v>
       </c>
       <c r="F90" s="7">
         <v>40771</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>13</v>
       </c>
@@ -7693,14 +7861,14 @@
       <c r="D91" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="16">
         <v>7479</v>
       </c>
       <c r="F91" s="7">
         <v>41436</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>9</v>
       </c>
@@ -7713,14 +7881,14 @@
       <c r="D92" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="16">
         <v>7489</v>
       </c>
       <c r="F92" s="7">
         <v>41563</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>5</v>
       </c>
@@ -7733,7 +7901,7 @@
       <c r="D93" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="16">
         <v>7474</v>
       </c>
       <c r="F93" s="7">
@@ -7753,7 +7921,7 @@
       <c r="D94" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="16">
         <v>7563</v>
       </c>
       <c r="F94" s="7">
@@ -7773,14 +7941,14 @@
       <c r="D95" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="16">
         <v>7680</v>
       </c>
       <c r="F95" s="7">
         <v>43635</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>5</v>
       </c>
@@ -7793,14 +7961,14 @@
       <c r="D96" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="16">
         <v>6900</v>
       </c>
       <c r="F96" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>13</v>
       </c>
@@ -7813,7 +7981,7 @@
       <c r="D97" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="16">
         <v>7041</v>
       </c>
       <c r="F97" s="7">
@@ -7833,14 +8001,14 @@
       <c r="D98" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="16">
         <v>7588</v>
       </c>
       <c r="F98" s="7">
         <v>42349</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>8</v>
       </c>
@@ -7853,7 +8021,7 @@
       <c r="D99" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="16">
         <v>7314</v>
       </c>
       <c r="F99" s="7">
@@ -7873,7 +8041,7 @@
       <c r="D100" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="16">
         <v>6830</v>
       </c>
       <c r="F100" s="7">
@@ -7893,14 +8061,14 @@
       <c r="D101" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="16">
         <v>6570</v>
       </c>
       <c r="F101" s="7">
         <v>37970</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>5</v>
       </c>
@@ -7913,14 +8081,14 @@
       <c r="D102" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="16">
         <v>7654</v>
       </c>
       <c r="F102" s="7">
         <v>43343</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1</v>
       </c>
@@ -7933,14 +8101,14 @@
       <c r="D103" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="16">
         <v>7686</v>
       </c>
       <c r="F103" s="7">
         <v>43707</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>3</v>
       </c>
@@ -7953,7 +8121,7 @@
       <c r="D104" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="16">
         <v>7617</v>
       </c>
       <c r="F104" s="7">
@@ -7973,7 +8141,7 @@
       <c r="D105" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E105" s="19">
+      <c r="E105" s="16">
         <v>6980</v>
       </c>
       <c r="F105" s="7">
@@ -7993,7 +8161,7 @@
       <c r="D106" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="16">
         <v>7156</v>
       </c>
       <c r="F106" s="7">
@@ -8013,7 +8181,7 @@
       <c r="D107" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="16">
         <v>6903</v>
       </c>
       <c r="F107" s="7">
@@ -8033,7 +8201,7 @@
       <c r="D108" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="16">
         <v>6899</v>
       </c>
       <c r="F108" s="7">
@@ -8053,7 +8221,7 @@
       <c r="D109" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109" s="16">
         <v>6926</v>
       </c>
       <c r="F109" s="7">
@@ -8073,7 +8241,7 @@
       <c r="D110" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110" s="16">
         <v>7161</v>
       </c>
       <c r="F110" s="7">
@@ -8093,7 +8261,7 @@
       <c r="D111" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E111" s="16">
         <v>6932</v>
       </c>
       <c r="F111" s="7">
@@ -8113,7 +8281,7 @@
       <c r="D112" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E112" s="16">
         <v>2260</v>
       </c>
       <c r="F112" s="7">
@@ -8133,7 +8301,7 @@
       <c r="D113" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="16">
         <v>7085</v>
       </c>
       <c r="F113" s="7">
@@ -8153,7 +8321,7 @@
       <c r="D114" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="16">
         <v>3500</v>
       </c>
       <c r="F114" s="7">
@@ -8173,7 +8341,7 @@
       <c r="D115" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="16">
         <v>7638</v>
       </c>
       <c r="F115" s="7">
@@ -8193,7 +8361,7 @@
       <c r="D116" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="16">
         <v>7492</v>
       </c>
       <c r="F116" s="7">
@@ -8213,7 +8381,7 @@
       <c r="D117" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="16">
         <v>7650</v>
       </c>
       <c r="F117" s="7">
@@ -8233,7 +8401,7 @@
       <c r="D118" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="16">
         <v>7506</v>
       </c>
       <c r="F118" s="7">
@@ -8253,7 +8421,7 @@
       <c r="D119" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="16">
         <v>7394</v>
       </c>
       <c r="F119" s="7">
@@ -8273,7 +8441,7 @@
       <c r="D120" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="16">
         <v>2330</v>
       </c>
       <c r="F120" s="7">
@@ -8293,7 +8461,7 @@
       <c r="D121" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="16">
         <v>7576</v>
       </c>
       <c r="F121" s="7">
@@ -8313,7 +8481,7 @@
       <c r="D122" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E122" s="19">
+      <c r="E122" s="16">
         <v>6973</v>
       </c>
       <c r="F122" s="7">
@@ -8333,7 +8501,7 @@
       <c r="D123" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E123" s="19">
+      <c r="E123" s="16">
         <v>6580</v>
       </c>
       <c r="F123" s="7">
@@ -8353,7 +8521,7 @@
       <c r="D124" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="16">
         <v>7262</v>
       </c>
       <c r="F124" s="7">
@@ -8373,7 +8541,7 @@
       <c r="D125" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="16">
         <v>7616</v>
       </c>
       <c r="F125" s="7">
@@ -8393,7 +8561,7 @@
       <c r="D126" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="16">
         <v>7352</v>
       </c>
       <c r="F126" s="7">
@@ -8413,7 +8581,7 @@
       <c r="D127" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127" s="16">
         <v>7393</v>
       </c>
       <c r="F127" s="7">
@@ -8433,7 +8601,7 @@
       <c r="D128" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="16">
         <v>6965</v>
       </c>
       <c r="F128" s="7">
@@ -8453,7 +8621,7 @@
       <c r="D129" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="16">
         <v>2400</v>
       </c>
       <c r="F129" s="7">
@@ -8473,7 +8641,7 @@
       <c r="D130" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="16">
         <v>7471</v>
       </c>
       <c r="F130" s="7">
@@ -8493,7 +8661,7 @@
       <c r="D131" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131" s="16">
         <v>6510</v>
       </c>
       <c r="F131" s="7">
@@ -8513,7 +8681,7 @@
       <c r="D132" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="16">
         <v>6968</v>
       </c>
       <c r="F132" s="7">
@@ -8533,7 +8701,7 @@
       <c r="D133" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133" s="16">
         <v>2450</v>
       </c>
       <c r="F133" s="7">
@@ -8553,7 +8721,7 @@
       <c r="D134" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="16">
         <v>6935</v>
       </c>
       <c r="F134" s="7">
@@ -8573,7 +8741,7 @@
       <c r="D135" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E135" s="16">
         <v>6958</v>
       </c>
       <c r="F135" s="7">
@@ -8593,7 +8761,7 @@
       <c r="D136" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="16">
         <v>7079</v>
       </c>
       <c r="F136" s="7">
@@ -8613,7 +8781,7 @@
       <c r="D137" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="16">
         <v>7094</v>
       </c>
       <c r="F137" s="7">
@@ -8633,7 +8801,7 @@
       <c r="D138" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="16">
         <v>2550</v>
       </c>
       <c r="F138" s="7">
@@ -8653,7 +8821,7 @@
       <c r="D139" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E139" s="19">
+      <c r="E139" s="16">
         <v>7005</v>
       </c>
       <c r="F139" s="7">
@@ -8673,7 +8841,7 @@
       <c r="D140" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E140" s="19">
+      <c r="E140" s="16">
         <v>3025</v>
       </c>
       <c r="F140" s="7">
@@ -8693,7 +8861,7 @@
       <c r="D141" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E141" s="19">
+      <c r="E141" s="16">
         <v>7074</v>
       </c>
       <c r="F141" s="7">
@@ -8713,7 +8881,7 @@
       <c r="D142" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E142" s="19">
+      <c r="E142" s="16">
         <v>6400</v>
       </c>
       <c r="F142" s="7">
@@ -8733,7 +8901,7 @@
       <c r="D143" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E143" s="19">
+      <c r="E143" s="16">
         <v>2950</v>
       </c>
       <c r="F143" s="7">
@@ -8753,7 +8921,7 @@
       <c r="D144" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="16">
         <v>7463</v>
       </c>
       <c r="F144" s="7">
@@ -8773,7 +8941,7 @@
       <c r="D145" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="16">
         <v>7439</v>
       </c>
       <c r="F145" s="7">
@@ -8793,7 +8961,7 @@
       <c r="D146" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="16">
         <v>6410</v>
       </c>
       <c r="F146" s="7">
@@ -8813,7 +8981,7 @@
       <c r="D147" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147" s="16">
         <v>7109</v>
       </c>
       <c r="F147" s="7">
@@ -8833,7 +9001,7 @@
       <c r="D148" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="16">
         <v>6898</v>
       </c>
       <c r="F148" s="7">
@@ -8853,7 +9021,7 @@
       <c r="D149" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149" s="16">
         <v>7446</v>
       </c>
       <c r="F149" s="7">
@@ -8873,7 +9041,7 @@
       <c r="D150" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="16">
         <v>6990</v>
       </c>
       <c r="F150" s="7">
@@ -8893,7 +9061,7 @@
       <c r="D151" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E151" s="19">
+      <c r="E151" s="16">
         <v>2800</v>
       </c>
       <c r="F151" s="7">
@@ -8913,7 +9081,7 @@
       <c r="D152" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="16">
         <v>3100</v>
       </c>
       <c r="F152" s="7">
@@ -8933,7 +9101,7 @@
       <c r="D153" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E153" s="16">
         <v>6730</v>
       </c>
       <c r="F153" s="7">
@@ -8953,7 +9121,7 @@
       <c r="D154" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="16">
         <v>7000</v>
       </c>
       <c r="F154" s="7">
@@ -8973,7 +9141,7 @@
       <c r="D155" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155" s="16">
         <v>7044</v>
       </c>
       <c r="F155" s="7">
@@ -8993,7 +9161,7 @@
       <c r="D156" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="16">
         <v>7173</v>
       </c>
       <c r="F156" s="7">
@@ -9013,7 +9181,7 @@
       <c r="D157" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E157" s="16">
         <v>5800</v>
       </c>
       <c r="F157" s="7">
@@ -9033,7 +9201,7 @@
       <c r="D158" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="16">
         <v>6660</v>
       </c>
       <c r="F158" s="7">
@@ -9053,7 +9221,7 @@
       <c r="D159" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E159" s="19">
+      <c r="E159" s="16">
         <v>6670</v>
       </c>
       <c r="F159" s="7">
@@ -9073,7 +9241,7 @@
       <c r="D160" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160" s="16">
         <v>7511</v>
       </c>
       <c r="F160" s="7">
@@ -9093,7 +9261,7 @@
       <c r="D161" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E161" s="19">
+      <c r="E161" s="16">
         <v>7609</v>
       </c>
       <c r="F161" s="7">
@@ -9113,7 +9281,7 @@
       <c r="D162" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="E162" s="19">
+      <c r="E162" s="16">
         <v>6943</v>
       </c>
       <c r="F162" s="7">
@@ -9133,7 +9301,7 @@
       <c r="D163" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="E163" s="19">
+      <c r="E163" s="16">
         <v>7699</v>
       </c>
       <c r="F163" s="6" t="s">
@@ -9153,7 +9321,7 @@
       <c r="D164" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="16">
         <v>3250</v>
       </c>
       <c r="F164" s="7">
@@ -9173,7 +9341,7 @@
       <c r="D165" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="16">
         <v>7568</v>
       </c>
       <c r="F165" s="7">
@@ -9193,7 +9361,7 @@
       <c r="D166" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="16">
         <v>7705</v>
       </c>
       <c r="F166" s="6" t="s">
@@ -9213,7 +9381,7 @@
       <c r="D167" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167" s="16">
         <v>3200</v>
       </c>
       <c r="F167" s="7">
@@ -9233,7 +9401,7 @@
       <c r="D168" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168" s="16">
         <v>7684</v>
       </c>
       <c r="F168" s="7">
@@ -9253,7 +9421,7 @@
       <c r="D169" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169" s="16">
         <v>6870</v>
       </c>
       <c r="F169" s="7">
@@ -9273,7 +9441,7 @@
       <c r="D170" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="16">
         <v>7388</v>
       </c>
       <c r="F170" s="7">
@@ -9293,7 +9461,7 @@
       <c r="D171" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="E171" s="19">
+      <c r="E171" s="16">
         <v>7345</v>
       </c>
       <c r="F171" s="7">
@@ -9313,7 +9481,7 @@
       <c r="D172" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E172" s="19">
+      <c r="E172" s="16">
         <v>7320</v>
       </c>
       <c r="F172" s="7">
@@ -9333,7 +9501,7 @@
       <c r="D173" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173" s="16">
         <v>6972</v>
       </c>
       <c r="F173" s="7">
@@ -9353,7 +9521,7 @@
       <c r="D174" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="16">
         <v>7328</v>
       </c>
       <c r="F174" s="7">
@@ -9373,7 +9541,7 @@
       <c r="D175" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="E175" s="19">
+      <c r="E175" s="16">
         <v>7055</v>
       </c>
       <c r="F175" s="7">
@@ -9393,7 +9561,7 @@
       <c r="D176" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E176" s="19">
+      <c r="E176" s="16">
         <v>7674</v>
       </c>
       <c r="F176" s="7">
@@ -9413,7 +9581,7 @@
       <c r="D177" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E177" s="19">
+      <c r="E177" s="16">
         <v>7681</v>
       </c>
       <c r="F177" s="7">
@@ -9433,7 +9601,7 @@
       <c r="D178" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="E178" s="19">
+      <c r="E178" s="16">
         <v>7600</v>
       </c>
       <c r="F178" s="7">
@@ -9453,7 +9621,7 @@
       <c r="D179" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E179" s="19">
+      <c r="E179" s="16">
         <v>7499</v>
       </c>
       <c r="F179" s="7">
@@ -9473,7 +9641,7 @@
       <c r="D180" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E180" s="19">
+      <c r="E180" s="16">
         <v>7062</v>
       </c>
       <c r="F180" s="7">
@@ -9493,7 +9661,7 @@
       <c r="D181" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E181" s="19">
+      <c r="E181" s="16">
         <v>6915</v>
       </c>
       <c r="F181" s="7">
@@ -9513,7 +9681,7 @@
       <c r="D182" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="16">
         <v>7649</v>
       </c>
       <c r="F182" s="7">
@@ -9533,7 +9701,7 @@
       <c r="D183" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E183" s="19">
+      <c r="E183" s="16">
         <v>7338</v>
       </c>
       <c r="F183" s="7">
@@ -9553,7 +9721,7 @@
       <c r="D184" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E184" s="19">
+      <c r="E184" s="16">
         <v>7669</v>
       </c>
       <c r="F184" s="7">
@@ -9573,7 +9741,7 @@
       <c r="D185" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="E185" s="19">
+      <c r="E185" s="16">
         <v>7152</v>
       </c>
       <c r="F185" s="7">
@@ -9593,7 +9761,7 @@
       <c r="D186" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E186" s="19">
+      <c r="E186" s="16">
         <v>3450</v>
       </c>
       <c r="F186" s="7">
@@ -9613,7 +9781,7 @@
       <c r="D187" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187" s="16">
         <v>7570</v>
       </c>
       <c r="F187" s="7">
@@ -9633,7 +9801,7 @@
       <c r="D188" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188" s="16">
         <v>7635</v>
       </c>
       <c r="F188" s="7">
@@ -9653,7 +9821,7 @@
       <c r="D189" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189" s="16">
         <v>7630</v>
       </c>
       <c r="F189" s="7">
@@ -9673,7 +9841,7 @@
       <c r="D190" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190" s="16">
         <v>7494</v>
       </c>
       <c r="F190" s="7">
@@ -9693,7 +9861,7 @@
       <c r="D191" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E191" s="19">
+      <c r="E191" s="16">
         <v>3700</v>
       </c>
       <c r="F191" s="7">
@@ -9713,7 +9881,7 @@
       <c r="D192" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E192" s="19">
+      <c r="E192" s="16">
         <v>7322</v>
       </c>
       <c r="F192" s="7">
@@ -9733,7 +9901,7 @@
       <c r="D193" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E193" s="19">
+      <c r="E193" s="16">
         <v>7376</v>
       </c>
       <c r="F193" s="7">
@@ -9753,7 +9921,7 @@
       <c r="D194" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E194" s="19">
+      <c r="E194" s="16">
         <v>7431</v>
       </c>
       <c r="F194" s="7">
@@ -9773,7 +9941,7 @@
       <c r="D195" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="16">
         <v>7060</v>
       </c>
       <c r="F195" s="7">
@@ -9793,7 +9961,7 @@
       <c r="D196" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E196" s="19">
+      <c r="E196" s="16">
         <v>7435</v>
       </c>
       <c r="F196" s="7">
@@ -9813,7 +9981,7 @@
       <c r="D197" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E197" s="19">
+      <c r="E197" s="16">
         <v>7316</v>
       </c>
       <c r="F197" s="7">
@@ -9833,7 +10001,7 @@
       <c r="D198" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E198" s="19">
+      <c r="E198" s="16">
         <v>7189</v>
       </c>
       <c r="F198" s="7">
@@ -9853,7 +10021,7 @@
       <c r="D199" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E199" s="16">
         <v>6957</v>
       </c>
       <c r="F199" s="7">
@@ -9873,7 +10041,7 @@
       <c r="D200" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E200" s="19">
+      <c r="E200" s="16">
         <v>7689</v>
       </c>
       <c r="F200" s="7">
@@ -9893,7 +10061,7 @@
       <c r="D201" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E201" s="19">
+      <c r="E201" s="16">
         <v>7158</v>
       </c>
       <c r="F201" s="7">
@@ -9913,7 +10081,7 @@
       <c r="D202" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="16">
         <v>7337</v>
       </c>
       <c r="F202" s="7">
@@ -9933,7 +10101,7 @@
       <c r="D203" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E203" s="19">
+      <c r="E203" s="16">
         <v>7467</v>
       </c>
       <c r="F203" s="7">
@@ -9953,7 +10121,7 @@
       <c r="D204" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="16">
         <v>7287</v>
       </c>
       <c r="F204" s="7">
@@ -9973,7 +10141,7 @@
       <c r="D205" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E205" s="19">
+      <c r="E205" s="16">
         <v>7465</v>
       </c>
       <c r="F205" s="7">
@@ -9993,7 +10161,7 @@
       <c r="D206" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E206" s="19">
+      <c r="E206" s="16">
         <v>6880</v>
       </c>
       <c r="F206" s="7">
@@ -10013,7 +10181,7 @@
       <c r="D207" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E207" s="19">
+      <c r="E207" s="16">
         <v>7069</v>
       </c>
       <c r="F207" s="7">
@@ -10033,7 +10201,7 @@
       <c r="D208" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E208" s="19">
+      <c r="E208" s="16">
         <v>6938</v>
       </c>
       <c r="F208" s="7">
@@ -10053,7 +10221,7 @@
       <c r="D209" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E209" s="19">
+      <c r="E209" s="16">
         <v>3800</v>
       </c>
       <c r="F209" s="7">
@@ -10073,7 +10241,7 @@
       <c r="D210" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E210" s="19">
+      <c r="E210" s="16">
         <v>1800</v>
       </c>
       <c r="F210" s="7">
@@ -10093,7 +10261,7 @@
       <c r="D211" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E211" s="19">
+      <c r="E211" s="16">
         <v>7510</v>
       </c>
       <c r="F211" s="7">
@@ -10113,7 +10281,7 @@
       <c r="D212" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E212" s="19">
+      <c r="E212" s="16">
         <v>7567</v>
       </c>
       <c r="F212" s="7">
@@ -10133,7 +10301,7 @@
       <c r="D213" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E213" s="19">
+      <c r="E213" s="16">
         <v>7713</v>
       </c>
       <c r="F213" s="6" t="s">
@@ -10153,7 +10321,7 @@
       <c r="D214" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="E214" s="19">
+      <c r="E214" s="16">
         <v>7473</v>
       </c>
       <c r="F214" s="7">
@@ -10173,7 +10341,7 @@
       <c r="D215" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="E215" s="19">
+      <c r="E215" s="16">
         <v>7963</v>
       </c>
       <c r="F215" s="7">
@@ -10193,7 +10361,7 @@
       <c r="D216" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="E216" s="19">
+      <c r="E216" s="16">
         <v>6937</v>
       </c>
       <c r="F216" s="7">
@@ -10213,7 +10381,7 @@
       <c r="D217" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="E217" s="19">
+      <c r="E217" s="16">
         <v>7642</v>
       </c>
       <c r="F217" s="7">
@@ -10233,7 +10401,7 @@
       <c r="D218" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E218" s="19">
+      <c r="E218" s="16">
         <v>7571</v>
       </c>
       <c r="F218" s="7">
@@ -10253,7 +10421,7 @@
       <c r="D219" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E219" s="19">
+      <c r="E219" s="16">
         <v>2150</v>
       </c>
       <c r="F219" s="7">
@@ -10273,7 +10441,7 @@
       <c r="D220" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E220" s="19">
+      <c r="E220" s="16">
         <v>7700</v>
       </c>
       <c r="F220" s="6" t="s">
@@ -10293,7 +10461,7 @@
       <c r="D221" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E221" s="19">
+      <c r="E221" s="16">
         <v>7496</v>
       </c>
       <c r="F221" s="7">
@@ -10313,7 +10481,7 @@
       <c r="D222" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E222" s="19">
+      <c r="E222" s="16">
         <v>3650</v>
       </c>
       <c r="F222" s="7">
@@ -10333,7 +10501,7 @@
       <c r="D223" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E223" s="19">
+      <c r="E223" s="16">
         <v>7185</v>
       </c>
       <c r="F223" s="7">
@@ -10353,7 +10521,7 @@
       <c r="D224" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="E224" s="19">
+      <c r="E224" s="16">
         <v>1700</v>
       </c>
       <c r="F224" s="7">
@@ -10373,7 +10541,7 @@
       <c r="D225" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E225" s="19">
+      <c r="E225" s="16">
         <v>3900</v>
       </c>
       <c r="F225" s="7">
@@ -10393,7 +10561,7 @@
       <c r="D226" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="E226" s="19">
+      <c r="E226" s="16">
         <v>3950</v>
       </c>
       <c r="F226" s="7">
@@ -10413,7 +10581,7 @@
       <c r="D227" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="E227" s="19">
+      <c r="E227" s="16">
         <v>7039</v>
       </c>
       <c r="F227" s="7">
@@ -10433,7 +10601,7 @@
       <c r="D228" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="E228" s="19">
+      <c r="E228" s="16">
         <v>7127</v>
       </c>
       <c r="F228" s="7">
@@ -10453,7 +10621,7 @@
       <c r="D229" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E229" s="19">
+      <c r="E229" s="16">
         <v>6680</v>
       </c>
       <c r="F229" s="7">
@@ -10473,7 +10641,7 @@
       <c r="D230" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="E230" s="19">
+      <c r="E230" s="16">
         <v>7517</v>
       </c>
       <c r="F230" s="7">
@@ -10493,7 +10661,7 @@
       <c r="D231" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E231" s="19">
+      <c r="E231" s="16">
         <v>6966</v>
       </c>
       <c r="F231" s="7">
@@ -10513,7 +10681,7 @@
       <c r="D232" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="E232" s="19">
+      <c r="E232" s="16">
         <v>7045</v>
       </c>
       <c r="F232" s="7">
@@ -10530,10 +10698,10 @@
       <c r="C233" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D233" s="16" t="s">
+      <c r="D233" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="E233" s="20">
+      <c r="E233" s="17">
         <v>7370</v>
       </c>
       <c r="F233" s="7">
@@ -10553,7 +10721,7 @@
       <c r="D234" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="E234" s="19">
+      <c r="E234" s="16">
         <v>7660</v>
       </c>
       <c r="F234" s="7">
@@ -10573,7 +10741,7 @@
       <c r="D235" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="E235" s="19">
+      <c r="E235" s="16">
         <v>6993</v>
       </c>
       <c r="F235" s="7">
@@ -10593,7 +10761,7 @@
       <c r="D236" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="E236" s="19">
+      <c r="E236" s="16">
         <v>7405</v>
       </c>
       <c r="F236" s="7">
@@ -10613,7 +10781,7 @@
       <c r="D237" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="E237" s="19">
+      <c r="E237" s="16">
         <v>6885</v>
       </c>
       <c r="F237" s="7">
@@ -10633,7 +10801,7 @@
       <c r="D238" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="E238" s="19">
+      <c r="E238" s="16">
         <v>7632</v>
       </c>
       <c r="F238" s="7">
@@ -10653,7 +10821,7 @@
       <c r="D239" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="E239" s="19">
+      <c r="E239" s="16">
         <v>7676</v>
       </c>
       <c r="F239" s="7">
@@ -10673,7 +10841,7 @@
       <c r="D240" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="E240" s="19">
+      <c r="E240" s="16">
         <v>7323</v>
       </c>
       <c r="F240" s="7">
@@ -10693,7 +10861,7 @@
       <c r="D241" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E241" s="19">
+      <c r="E241" s="16">
         <v>6864</v>
       </c>
       <c r="F241" s="7">
@@ -10713,7 +10881,7 @@
       <c r="D242" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="E242" s="19">
+      <c r="E242" s="16">
         <v>7373</v>
       </c>
       <c r="F242" s="7">
@@ -10733,7 +10901,7 @@
       <c r="D243" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="E243" s="19">
+      <c r="E243" s="16">
         <v>6914</v>
       </c>
       <c r="F243" s="7">
@@ -10753,7 +10921,7 @@
       <c r="D244" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="E244" s="19">
+      <c r="E244" s="16">
         <v>7374</v>
       </c>
       <c r="F244" s="7">
@@ -10773,7 +10941,7 @@
       <c r="D245" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E245" s="19">
+      <c r="E245" s="16">
         <v>7668</v>
       </c>
       <c r="F245" s="7">
@@ -10793,7 +10961,7 @@
       <c r="D246" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="E246" s="19">
+      <c r="E246" s="16">
         <v>7429</v>
       </c>
       <c r="F246" s="7">
@@ -10813,7 +10981,7 @@
       <c r="D247" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E247" s="19">
+      <c r="E247" s="16">
         <v>7346</v>
       </c>
       <c r="F247" s="7">
@@ -10833,7 +11001,7 @@
       <c r="D248" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E248" s="19">
+      <c r="E248" s="16">
         <v>7447</v>
       </c>
       <c r="F248" s="7">
@@ -10853,7 +11021,7 @@
       <c r="D249" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E249" s="19">
+      <c r="E249" s="16">
         <v>7670</v>
       </c>
       <c r="F249" s="7">
@@ -10873,7 +11041,7 @@
       <c r="D250" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E250" s="19">
+      <c r="E250" s="16">
         <v>7679</v>
       </c>
       <c r="F250" s="7">
@@ -10893,7 +11061,7 @@
       <c r="D251" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="E251" s="19">
+      <c r="E251" s="16">
         <v>6850</v>
       </c>
       <c r="F251" s="7">
@@ -10913,7 +11081,7 @@
       <c r="D252" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="E252" s="19">
+      <c r="E252" s="16">
         <v>7339</v>
       </c>
       <c r="F252" s="7">
@@ -10933,7 +11101,7 @@
       <c r="D253" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="E253" s="19">
+      <c r="E253" s="16">
         <v>7441</v>
       </c>
       <c r="F253" s="7">
@@ -10953,7 +11121,7 @@
       <c r="D254" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="E254" s="19">
+      <c r="E254" s="16">
         <v>7193</v>
       </c>
       <c r="F254" s="7">
@@ -10973,7 +11141,7 @@
       <c r="D255" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="E255" s="19">
+      <c r="E255" s="16">
         <v>4050</v>
       </c>
       <c r="F255" s="7">
@@ -10993,7 +11161,7 @@
       <c r="D256" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E256" s="19">
+      <c r="E256" s="16">
         <v>4100</v>
       </c>
       <c r="F256" s="7">
@@ -11013,7 +11181,7 @@
       <c r="D257" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="E257" s="19">
+      <c r="E257" s="16">
         <v>7378</v>
       </c>
       <c r="F257" s="7">
@@ -11033,7 +11201,7 @@
       <c r="D258" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E258" s="19">
+      <c r="E258" s="16">
         <v>6740</v>
       </c>
       <c r="F258" s="7">
@@ -11053,7 +11221,7 @@
       <c r="D259" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="E259" s="19">
+      <c r="E259" s="16">
         <v>7454</v>
       </c>
       <c r="F259" s="7">
@@ -11073,7 +11241,7 @@
       <c r="D260" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="E260" s="19">
+      <c r="E260" s="16">
         <v>7702</v>
       </c>
       <c r="F260" s="6" t="s">
@@ -11093,7 +11261,7 @@
       <c r="D261" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E261" s="19">
+      <c r="E261" s="16">
         <v>7585</v>
       </c>
       <c r="F261" s="7">
@@ -11113,7 +11281,7 @@
       <c r="D262" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="E262" s="19">
+      <c r="E262" s="16">
         <v>7703</v>
       </c>
       <c r="F262" s="6" t="s">
@@ -11133,7 +11301,7 @@
       <c r="D263" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="E263" s="19">
+      <c r="E263" s="16">
         <v>5350</v>
       </c>
       <c r="F263" s="7">
@@ -11153,7 +11321,7 @@
       <c r="D264" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="E264" s="19">
+      <c r="E264" s="16">
         <v>6983</v>
       </c>
       <c r="F264" s="7">
@@ -11173,7 +11341,7 @@
       <c r="D265" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E265" s="19">
+      <c r="E265" s="16">
         <v>7344</v>
       </c>
       <c r="F265" s="7">
@@ -11193,7 +11361,7 @@
       <c r="D266" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="E266" s="19">
+      <c r="E266" s="16">
         <v>7384</v>
       </c>
       <c r="F266" s="7">
@@ -11213,7 +11381,7 @@
       <c r="D267" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E267" s="19">
+      <c r="E267" s="16">
         <v>6780</v>
       </c>
       <c r="F267" s="7">
@@ -11233,7 +11401,7 @@
       <c r="D268" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="E268" s="19">
+      <c r="E268" s="16">
         <v>7620</v>
       </c>
       <c r="F268" s="7">
@@ -11253,7 +11421,7 @@
       <c r="D269" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="E269" s="19">
+      <c r="E269" s="16">
         <v>7667</v>
       </c>
       <c r="F269" s="7">
@@ -11273,7 +11441,7 @@
       <c r="D270" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="E270" s="19">
+      <c r="E270" s="16">
         <v>6905</v>
       </c>
       <c r="F270" s="7">
@@ -11293,7 +11461,7 @@
       <c r="D271" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E271" s="19">
+      <c r="E271" s="16">
         <v>6862</v>
       </c>
       <c r="F271" s="7">
@@ -11313,7 +11481,7 @@
       <c r="D272" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E272" s="19">
+      <c r="E272" s="16">
         <v>7347</v>
       </c>
       <c r="F272" s="7">
@@ -11333,7 +11501,7 @@
       <c r="D273" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="E273" s="19">
+      <c r="E273" s="16">
         <v>7606</v>
       </c>
       <c r="F273" s="7">
@@ -11353,7 +11521,7 @@
       <c r="D274" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="E274" s="20">
+      <c r="E274" s="17">
         <v>7371</v>
       </c>
       <c r="F274" s="7">
@@ -11373,7 +11541,7 @@
       <c r="D275" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="E275" s="19">
+      <c r="E275" s="16">
         <v>7658</v>
       </c>
       <c r="F275" s="7">
@@ -11393,7 +11561,7 @@
       <c r="D276" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="E276" s="19">
+      <c r="E276" s="16">
         <v>7036</v>
       </c>
       <c r="F276" s="7">
@@ -11413,7 +11581,7 @@
       <c r="D277" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="E277" s="19">
+      <c r="E277" s="16">
         <v>7396</v>
       </c>
       <c r="F277" s="7">
@@ -11433,7 +11601,7 @@
       <c r="D278" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="E278" s="19">
+      <c r="E278" s="16">
         <v>4250</v>
       </c>
       <c r="F278" s="7">
@@ -11453,7 +11621,7 @@
       <c r="D279" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="E279" s="19">
+      <c r="E279" s="16">
         <v>4300</v>
       </c>
       <c r="F279" s="7">
@@ -11473,7 +11641,7 @@
       <c r="D280" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E280" s="19">
+      <c r="E280" s="16">
         <v>7697</v>
       </c>
       <c r="F280" s="6" t="s">
@@ -11493,7 +11661,7 @@
       <c r="D281" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E281" s="19">
+      <c r="E281" s="16">
         <v>6860</v>
       </c>
       <c r="F281" s="7">
@@ -11513,7 +11681,7 @@
       <c r="D282" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="E282" s="19">
+      <c r="E282" s="16">
         <v>6560</v>
       </c>
       <c r="F282" s="7">
@@ -11533,7 +11701,7 @@
       <c r="D283" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E283" s="19">
+      <c r="E283" s="16">
         <v>7157</v>
       </c>
       <c r="F283" s="7">
@@ -11553,7 +11721,7 @@
       <c r="D284" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="E284" s="19">
+      <c r="E284" s="16">
         <v>6470</v>
       </c>
       <c r="F284" s="7">
@@ -11573,7 +11741,7 @@
       <c r="D285" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="E285" s="19">
+      <c r="E285" s="16">
         <v>7059</v>
       </c>
       <c r="F285" s="7">
@@ -11593,7 +11761,7 @@
       <c r="D286" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="E286" s="19">
+      <c r="E286" s="16">
         <v>7165</v>
       </c>
       <c r="F286" s="7">
@@ -11613,7 +11781,7 @@
       <c r="D287" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E287" s="19">
+      <c r="E287" s="16">
         <v>4400</v>
       </c>
       <c r="F287" s="7">
@@ -11633,7 +11801,7 @@
       <c r="D288" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="E288" s="19">
+      <c r="E288" s="16">
         <v>7656</v>
       </c>
       <c r="F288" s="7">
@@ -11653,7 +11821,7 @@
       <c r="D289" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="E289" s="19">
+      <c r="E289" s="16">
         <v>7124</v>
       </c>
       <c r="F289" s="7">
@@ -11673,7 +11841,7 @@
       <c r="D290" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="E290" s="19">
+      <c r="E290" s="16">
         <v>7574</v>
       </c>
       <c r="F290" s="7">
@@ -11693,7 +11861,7 @@
       <c r="D291" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E291" s="19">
+      <c r="E291" s="16">
         <v>6922</v>
       </c>
       <c r="F291" s="7">
@@ -11713,7 +11881,7 @@
       <c r="D292" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E292" s="19">
+      <c r="E292" s="16">
         <v>4425</v>
       </c>
       <c r="F292" s="7">
@@ -11733,7 +11901,7 @@
       <c r="D293" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="E293" s="19">
+      <c r="E293" s="16">
         <v>7004</v>
       </c>
       <c r="F293" s="7">
@@ -11753,7 +11921,7 @@
       <c r="D294" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E294" s="19">
+      <c r="E294" s="16">
         <v>7329</v>
       </c>
       <c r="F294" s="7">
@@ -11773,7 +11941,7 @@
       <c r="D295" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E295" s="19">
+      <c r="E295" s="16">
         <v>7698</v>
       </c>
       <c r="F295" s="6" t="s">
@@ -11793,7 +11961,7 @@
       <c r="D296" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="E296" s="19">
+      <c r="E296" s="16">
         <v>7709</v>
       </c>
       <c r="F296" s="6" t="s">
@@ -11813,7 +11981,7 @@
       <c r="D297" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="E297" s="19">
+      <c r="E297" s="16">
         <v>7437</v>
       </c>
       <c r="F297" s="7">
@@ -11833,7 +12001,7 @@
       <c r="D298" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E298" s="19">
+      <c r="E298" s="16">
         <v>7387</v>
       </c>
       <c r="F298" s="7">
@@ -11853,7 +12021,7 @@
       <c r="D299" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="E299" s="19">
+      <c r="E299" s="16">
         <v>7053</v>
       </c>
       <c r="F299" s="7">
@@ -11873,7 +12041,7 @@
       <c r="D300" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="E300" s="19">
+      <c r="E300" s="16">
         <v>7692</v>
       </c>
       <c r="F300" s="7">
@@ -11893,7 +12061,7 @@
       <c r="D301" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="E301" s="19">
+      <c r="E301" s="16">
         <v>7012</v>
       </c>
       <c r="F301" s="7">
@@ -11913,7 +12081,7 @@
       <c r="D302" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E302" s="19">
+      <c r="E302" s="16">
         <v>5950</v>
       </c>
       <c r="F302" s="7">
@@ -11933,7 +12101,7 @@
       <c r="D303" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E303" s="19">
+      <c r="E303" s="16">
         <v>4450</v>
       </c>
       <c r="F303" s="7">
@@ -11953,7 +12121,7 @@
       <c r="D304" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E304" s="19">
+      <c r="E304" s="16">
         <v>4500</v>
       </c>
       <c r="F304" s="7">
@@ -11973,7 +12141,7 @@
       <c r="D305" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E305" s="19">
+      <c r="E305" s="16">
         <v>7663</v>
       </c>
       <c r="F305" s="7">
@@ -11993,7 +12161,7 @@
       <c r="D306" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="E306" s="19">
+      <c r="E306" s="16">
         <v>7655</v>
       </c>
       <c r="F306" s="7">
@@ -12013,7 +12181,7 @@
       <c r="D307" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E307" s="19">
+      <c r="E307" s="16">
         <v>7647</v>
       </c>
       <c r="F307" s="7">
@@ -12033,7 +12201,7 @@
       <c r="D308" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="E308" s="19">
+      <c r="E308" s="16">
         <v>7691</v>
       </c>
       <c r="F308" s="7">
@@ -12053,7 +12221,7 @@
       <c r="D309" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="E309" s="19">
+      <c r="E309" s="16">
         <v>7478</v>
       </c>
       <c r="F309" s="7">
@@ -12073,7 +12241,7 @@
       <c r="D310" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="E310" s="19">
+      <c r="E310" s="16">
         <v>4550</v>
       </c>
       <c r="F310" s="7">
@@ -12093,7 +12261,7 @@
       <c r="D311" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="E311" s="19">
+      <c r="E311" s="16">
         <v>7685</v>
       </c>
       <c r="F311" s="7">
@@ -12113,7 +12281,7 @@
       <c r="D312" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="E312" s="19">
+      <c r="E312" s="16">
         <v>7611</v>
       </c>
       <c r="F312" s="7">
@@ -12133,7 +12301,7 @@
       <c r="D313" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E313" s="19">
+      <c r="E313" s="16">
         <v>4600</v>
       </c>
       <c r="F313" s="7">
@@ -12153,7 +12321,7 @@
       <c r="D314" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E314" s="19">
+      <c r="E314" s="16">
         <v>7497</v>
       </c>
       <c r="F314" s="7">
@@ -12173,7 +12341,7 @@
       <c r="D315" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E315" s="19">
+      <c r="E315" s="16">
         <v>7477</v>
       </c>
       <c r="F315" s="7">
@@ -12193,7 +12361,7 @@
       <c r="D316" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="E316" s="19">
+      <c r="E316" s="16">
         <v>7340</v>
       </c>
       <c r="F316" s="7">
@@ -12213,7 +12381,7 @@
       <c r="D317" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E317" s="19">
+      <c r="E317" s="16">
         <v>7327</v>
       </c>
       <c r="F317" s="7">
@@ -12233,7 +12401,7 @@
       <c r="D318" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="E318" s="19">
+      <c r="E318" s="16">
         <v>7178</v>
       </c>
       <c r="F318" s="7">
@@ -12253,7 +12421,7 @@
       <c r="D319" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="E319" s="19">
+      <c r="E319" s="16">
         <v>6959</v>
       </c>
       <c r="F319" s="7">
@@ -12273,7 +12441,7 @@
       <c r="D320" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="E320" s="19">
+      <c r="E320" s="16">
         <v>7618</v>
       </c>
       <c r="F320" s="7">
@@ -12293,7 +12461,7 @@
       <c r="D321" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="E321" s="19">
+      <c r="E321" s="16">
         <v>7675</v>
       </c>
       <c r="F321" s="7">
@@ -12313,7 +12481,7 @@
       <c r="D322" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="E322" s="19">
+      <c r="E322" s="16">
         <v>6970</v>
       </c>
       <c r="F322" s="7">
@@ -12333,7 +12501,7 @@
       <c r="D323" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="E323" s="19">
+      <c r="E323" s="16">
         <v>7965</v>
       </c>
       <c r="F323" s="6" t="s">
@@ -12353,7 +12521,7 @@
       <c r="D324" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="E324" s="19">
+      <c r="E324" s="16">
         <v>7141</v>
       </c>
       <c r="F324" s="7">
@@ -12373,7 +12541,7 @@
       <c r="D325" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="E325" s="19">
+      <c r="E325" s="16">
         <v>7078</v>
       </c>
       <c r="F325" s="7">
@@ -12393,7 +12561,7 @@
       <c r="D326" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="E326" s="19">
+      <c r="E326" s="16">
         <v>7412</v>
       </c>
       <c r="F326" s="7">
@@ -12413,7 +12581,7 @@
       <c r="D327" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="E327" s="19">
+      <c r="E327" s="16">
         <v>7645</v>
       </c>
       <c r="F327" s="7">
@@ -12433,7 +12601,7 @@
       <c r="D328" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="E328" s="19">
+      <c r="E328" s="16">
         <v>6979</v>
       </c>
       <c r="F328" s="7">
@@ -12453,7 +12621,7 @@
       <c r="D329" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="E329" s="19">
+      <c r="E329" s="16">
         <v>7708</v>
       </c>
       <c r="F329" s="6" t="s">
@@ -12473,7 +12641,7 @@
       <c r="D330" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="E330" s="19">
+      <c r="E330" s="16">
         <v>4350</v>
       </c>
       <c r="F330" s="7">
@@ -12493,7 +12661,7 @@
       <c r="D331" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="E331" s="19">
+      <c r="E331" s="16">
         <v>7369</v>
       </c>
       <c r="F331" s="7">
@@ -12513,7 +12681,7 @@
       <c r="D332" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="E332" s="19">
+      <c r="E332" s="16">
         <v>4700</v>
       </c>
       <c r="F332" s="7">
@@ -12533,7 +12701,7 @@
       <c r="D333" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="E333" s="19">
+      <c r="E333" s="16">
         <v>7541</v>
       </c>
       <c r="F333" s="7">
@@ -12553,7 +12721,7 @@
       <c r="D334" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="E334" s="19">
+      <c r="E334" s="16">
         <v>7580</v>
       </c>
       <c r="F334" s="7">
@@ -12573,7 +12741,7 @@
       <c r="D335" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E335" s="19">
+      <c r="E335" s="16">
         <v>7542</v>
       </c>
       <c r="F335" s="7">
@@ -12593,7 +12761,7 @@
       <c r="D336" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="E336" s="19">
+      <c r="E336" s="16">
         <v>7556</v>
       </c>
       <c r="F336" s="7">
@@ -12613,7 +12781,7 @@
       <c r="D337" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="E337" s="19">
+      <c r="E337" s="16">
         <v>7561</v>
       </c>
       <c r="F337" s="7">
@@ -12633,7 +12801,7 @@
       <c r="D338" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="E338" s="19">
+      <c r="E338" s="16">
         <v>7529</v>
       </c>
       <c r="F338" s="7">
@@ -12653,7 +12821,7 @@
       <c r="D339" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="E339" s="19">
+      <c r="E339" s="16">
         <v>7672</v>
       </c>
       <c r="F339" s="7">
@@ -12673,7 +12841,7 @@
       <c r="D340" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E340" s="19">
+      <c r="E340" s="16">
         <v>7613</v>
       </c>
       <c r="F340" s="7">
@@ -12693,7 +12861,7 @@
       <c r="D341" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="E341" s="19">
+      <c r="E341" s="16">
         <v>7575</v>
       </c>
       <c r="F341" s="7">
@@ -12713,7 +12881,7 @@
       <c r="D342" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="E342" s="19">
+      <c r="E342" s="16">
         <v>7551</v>
       </c>
       <c r="F342" s="7">
@@ -12733,7 +12901,7 @@
       <c r="D343" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E343" s="19">
+      <c r="E343" s="16">
         <v>7587</v>
       </c>
       <c r="F343" s="7">
@@ -12753,7 +12921,7 @@
       <c r="D344" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="E344" s="19">
+      <c r="E344" s="16">
         <v>7595</v>
       </c>
       <c r="F344" s="7">
@@ -12773,7 +12941,7 @@
       <c r="D345" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="E345" s="19">
+      <c r="E345" s="16">
         <v>7566</v>
       </c>
       <c r="F345" s="7">
@@ -12793,7 +12961,7 @@
       <c r="D346" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="E346" s="19">
+      <c r="E346" s="16">
         <v>7564</v>
       </c>
       <c r="F346" s="7">
@@ -12813,7 +12981,7 @@
       <c r="D347" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="E347" s="19">
+      <c r="E347" s="16">
         <v>7582</v>
       </c>
       <c r="F347" s="7">
@@ -12833,7 +13001,7 @@
       <c r="D348" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="E348" s="19">
+      <c r="E348" s="16">
         <v>7634</v>
       </c>
       <c r="F348" s="7">
@@ -12853,7 +13021,7 @@
       <c r="D349" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E349" s="19">
+      <c r="E349" s="16">
         <v>7552</v>
       </c>
       <c r="F349" s="7">
@@ -12873,7 +13041,7 @@
       <c r="D350" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="E350" s="19">
+      <c r="E350" s="16">
         <v>7151</v>
       </c>
       <c r="F350" s="7">
@@ -12893,7 +13061,7 @@
       <c r="D351" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E351" s="19">
+      <c r="E351" s="16">
         <v>6910</v>
       </c>
       <c r="F351" s="7">
@@ -12913,7 +13081,7 @@
       <c r="D352" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="E352" s="19">
+      <c r="E352" s="16">
         <v>4950</v>
       </c>
       <c r="F352" s="7">
@@ -12933,7 +13101,7 @@
       <c r="D353" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E353" s="19">
+      <c r="E353" s="16">
         <v>5050</v>
       </c>
       <c r="F353" s="7">
@@ -12953,7 +13121,7 @@
       <c r="D354" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="E354" s="19">
+      <c r="E354" s="16">
         <v>7525</v>
       </c>
       <c r="F354" s="7">
@@ -12973,7 +13141,7 @@
       <c r="D355" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E355" s="19">
+      <c r="E355" s="16">
         <v>7547</v>
       </c>
       <c r="F355" s="7">
@@ -12993,7 +13161,7 @@
       <c r="D356" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="E356" s="19">
+      <c r="E356" s="16">
         <v>7169</v>
       </c>
       <c r="F356" s="7">
@@ -13013,7 +13181,7 @@
       <c r="D357" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E357" s="19">
+      <c r="E357" s="16">
         <v>7619</v>
       </c>
       <c r="F357" s="7">
@@ -13033,7 +13201,7 @@
       <c r="D358" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="E358" s="19">
+      <c r="E358" s="16">
         <v>7230</v>
       </c>
       <c r="F358" s="10" t="s">
@@ -13053,7 +13221,7 @@
       <c r="D359" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="E359" s="19">
+      <c r="E359" s="16">
         <v>7286</v>
       </c>
       <c r="F359" s="7">
@@ -13073,7 +13241,7 @@
       <c r="D360" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="E360" s="19">
+      <c r="E360" s="16">
         <v>7247</v>
       </c>
       <c r="F360" s="7">
@@ -13093,7 +13261,7 @@
       <c r="D361" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="E361" s="19">
+      <c r="E361" s="16">
         <v>7184</v>
       </c>
       <c r="F361" s="7">
@@ -13113,7 +13281,7 @@
       <c r="D362" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="E362" s="19">
+      <c r="E362" s="16">
         <v>7129</v>
       </c>
       <c r="F362" s="7">
@@ -13133,7 +13301,7 @@
       <c r="D363" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="E363" s="19">
+      <c r="E363" s="16">
         <v>7232</v>
       </c>
       <c r="F363" s="7">
@@ -13153,7 +13321,7 @@
       <c r="D364" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E364" s="19">
+      <c r="E364" s="16">
         <v>7415</v>
       </c>
       <c r="F364" s="7">
@@ -13173,7 +13341,7 @@
       <c r="D365" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="E365" s="19">
+      <c r="E365" s="16">
         <v>7021</v>
       </c>
       <c r="F365" s="7">
@@ -13193,7 +13361,7 @@
       <c r="D366" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="E366" s="19">
+      <c r="E366" s="16">
         <v>7198</v>
       </c>
       <c r="F366" s="7">
@@ -13213,7 +13381,7 @@
       <c r="D367" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E367" s="19">
+      <c r="E367" s="16">
         <v>7648</v>
       </c>
       <c r="F367" s="7">
@@ -13233,7 +13401,7 @@
       <c r="D368" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="E368" s="19">
+      <c r="E368" s="16">
         <v>7386</v>
       </c>
       <c r="F368" s="7">
@@ -13253,7 +13421,7 @@
       <c r="D369" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="E369" s="19">
+      <c r="E369" s="16">
         <v>7531</v>
       </c>
       <c r="F369" s="7">
@@ -13273,7 +13441,7 @@
       <c r="D370" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="E370" s="19">
+      <c r="E370" s="16">
         <v>7540</v>
       </c>
       <c r="F370" s="7">
@@ -13293,7 +13461,7 @@
       <c r="D371" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="E371" s="19">
+      <c r="E371" s="16">
         <v>7087</v>
       </c>
       <c r="F371" s="7">
@@ -13313,7 +13481,7 @@
       <c r="D372" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="E372" s="19">
+      <c r="E372" s="16">
         <v>7018</v>
       </c>
       <c r="F372" s="7">
@@ -13333,7 +13501,7 @@
       <c r="D373" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="E373" s="19">
+      <c r="E373" s="16">
         <v>7229</v>
       </c>
       <c r="F373" s="7">
@@ -13353,7 +13521,7 @@
       <c r="D374" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="E374" s="19">
+      <c r="E374" s="16">
         <v>7202</v>
       </c>
       <c r="F374" s="7">
@@ -13373,7 +13541,7 @@
       <c r="D375" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="E375" s="19">
+      <c r="E375" s="16">
         <v>7629</v>
       </c>
       <c r="F375" s="7">
@@ -13393,7 +13561,7 @@
       <c r="D376" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="E376" s="19">
+      <c r="E376" s="16">
         <v>7527</v>
       </c>
       <c r="F376" s="7">
@@ -13413,7 +13581,7 @@
       <c r="D377" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="E377" s="19">
+      <c r="E377" s="16">
         <v>7265</v>
       </c>
       <c r="F377" s="7">
@@ -13433,7 +13601,7 @@
       <c r="D378" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="E378" s="19">
+      <c r="E378" s="16">
         <v>7263</v>
       </c>
       <c r="F378" s="7">
@@ -13453,7 +13621,7 @@
       <c r="D379" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="E379" s="19">
+      <c r="E379" s="16">
         <v>7312</v>
       </c>
       <c r="F379" s="7">
@@ -13473,7 +13641,7 @@
       <c r="D380" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="E380" s="19">
+      <c r="E380" s="16">
         <v>7223</v>
       </c>
       <c r="F380" s="7">
@@ -13493,7 +13661,7 @@
       <c r="D381" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="E381" s="19">
+      <c r="E381" s="16">
         <v>7133</v>
       </c>
       <c r="F381" s="7">
@@ -13513,7 +13681,7 @@
       <c r="D382" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="E382" s="19">
+      <c r="E382" s="16">
         <v>7240</v>
       </c>
       <c r="F382" s="7">
@@ -13533,7 +13701,7 @@
       <c r="D383" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="E383" s="19">
+      <c r="E383" s="16">
         <v>7228</v>
       </c>
       <c r="F383" s="7">
@@ -13553,7 +13721,7 @@
       <c r="D384" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="E384" s="19">
+      <c r="E384" s="16">
         <v>7226</v>
       </c>
       <c r="F384" s="7">
@@ -13573,7 +13741,7 @@
       <c r="D385" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="E385" s="19">
+      <c r="E385" s="16">
         <v>7054</v>
       </c>
       <c r="F385" s="7">
@@ -13593,7 +13761,7 @@
       <c r="D386" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="E386" s="19">
+      <c r="E386" s="16">
         <v>7558</v>
       </c>
       <c r="F386" s="7">
@@ -13613,7 +13781,7 @@
       <c r="D387" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="E387" s="19">
+      <c r="E387" s="16">
         <v>7549</v>
       </c>
       <c r="F387" s="7">
@@ -13633,7 +13801,7 @@
       <c r="D388" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="E388" s="19">
+      <c r="E388" s="16">
         <v>7244</v>
       </c>
       <c r="F388" s="10" t="s">
@@ -13653,7 +13821,7 @@
       <c r="D389" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="E389" s="19">
+      <c r="E389" s="16">
         <v>7491</v>
       </c>
       <c r="F389" s="7">
@@ -13673,7 +13841,7 @@
       <c r="D390" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="E390" s="19">
+      <c r="E390" s="16">
         <v>7299</v>
       </c>
       <c r="F390" s="7">
@@ -13693,7 +13861,7 @@
       <c r="D391" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="E391" s="19">
+      <c r="E391" s="16">
         <v>7251</v>
       </c>
       <c r="F391" s="7">
@@ -13713,7 +13881,7 @@
       <c r="D392" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E392" s="19">
+      <c r="E392" s="16">
         <v>7425</v>
       </c>
       <c r="F392" s="7">
@@ -13733,7 +13901,7 @@
       <c r="D393" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="E393" s="19">
+      <c r="E393" s="16">
         <v>7112</v>
       </c>
       <c r="F393" s="7">
@@ -13753,7 +13921,7 @@
       <c r="D394" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="E394" s="19">
+      <c r="E394" s="16">
         <v>7615</v>
       </c>
       <c r="F394" s="7">
@@ -13773,7 +13941,7 @@
       <c r="D395" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="E395" s="19">
+      <c r="E395" s="16">
         <v>7181</v>
       </c>
       <c r="F395" s="7">
@@ -13793,7 +13961,7 @@
       <c r="D396" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="E396" s="19">
+      <c r="E396" s="16">
         <v>7277</v>
       </c>
       <c r="F396" s="9" t="s">
@@ -13813,7 +13981,7 @@
       <c r="D397" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="E397" s="19">
+      <c r="E397" s="16">
         <v>7500</v>
       </c>
       <c r="F397" s="7">
@@ -13833,7 +14001,7 @@
       <c r="D398" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="E398" s="19">
+      <c r="E398" s="16">
         <v>7162</v>
       </c>
       <c r="F398" s="7">
@@ -13853,7 +14021,7 @@
       <c r="D399" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="E399" s="19">
+      <c r="E399" s="16">
         <v>7259</v>
       </c>
       <c r="F399" s="7">
@@ -13873,7 +14041,7 @@
       <c r="D400" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="E400" s="19">
+      <c r="E400" s="16">
         <v>7538</v>
       </c>
       <c r="F400" s="7">
@@ -13893,7 +14061,7 @@
       <c r="D401" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="E401" s="19">
+      <c r="E401" s="16">
         <v>7248</v>
       </c>
       <c r="F401" s="7">
@@ -13913,7 +14081,7 @@
       <c r="D402" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="E402" s="19">
+      <c r="E402" s="16">
         <v>7233</v>
       </c>
       <c r="F402" s="8" t="s">
@@ -13933,7 +14101,7 @@
       <c r="D403" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="E403" s="19">
+      <c r="E403" s="16">
         <v>7476</v>
       </c>
       <c r="F403" s="7">
@@ -13953,7 +14121,7 @@
       <c r="D404" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="E404" s="19">
+      <c r="E404" s="16">
         <v>7285</v>
       </c>
       <c r="F404" s="7">
@@ -13973,7 +14141,7 @@
       <c r="D405" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="E405" s="19">
+      <c r="E405" s="16">
         <v>7544</v>
       </c>
       <c r="F405" s="7">
@@ -13993,7 +14161,7 @@
       <c r="D406" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="E406" s="19">
+      <c r="E406" s="16">
         <v>6876</v>
       </c>
       <c r="F406" s="7">
@@ -14013,7 +14181,7 @@
       <c r="D407" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="E407" s="19">
+      <c r="E407" s="16">
         <v>7295</v>
       </c>
       <c r="F407" s="7">
@@ -14033,7 +14201,7 @@
       <c r="D408" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="E408" s="19">
+      <c r="E408" s="16">
         <v>7083</v>
       </c>
       <c r="F408" s="7">
@@ -14053,7 +14221,7 @@
       <c r="D409" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="E409" s="19">
+      <c r="E409" s="16">
         <v>7483</v>
       </c>
       <c r="F409" s="7">
@@ -14073,7 +14241,7 @@
       <c r="D410" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="E410" s="19">
+      <c r="E410" s="16">
         <v>7072</v>
       </c>
       <c r="F410" s="7">
@@ -14093,7 +14261,7 @@
       <c r="D411" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="E411" s="19">
+      <c r="E411" s="16">
         <v>7137</v>
       </c>
       <c r="F411" s="7">
@@ -14113,7 +14281,7 @@
       <c r="D412" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="E412" s="19">
+      <c r="E412" s="16">
         <v>7521</v>
       </c>
       <c r="F412" s="7">
@@ -14133,7 +14301,7 @@
       <c r="D413" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="E413" s="19">
+      <c r="E413" s="16">
         <v>5150</v>
       </c>
       <c r="F413" s="7">
@@ -14153,7 +14321,7 @@
       <c r="D414" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="E414" s="19">
+      <c r="E414" s="16">
         <v>7532</v>
       </c>
       <c r="F414" s="7">
@@ -14173,7 +14341,7 @@
       <c r="D415" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="E415" s="19">
+      <c r="E415" s="16">
         <v>7297</v>
       </c>
       <c r="F415" s="8" t="s">
@@ -14193,7 +14361,7 @@
       <c r="D416" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="E416" s="19">
+      <c r="E416" s="16">
         <v>7480</v>
       </c>
       <c r="F416" s="7">
@@ -14213,7 +14381,7 @@
       <c r="D417" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="E417" s="19">
+      <c r="E417" s="16">
         <v>7535</v>
       </c>
       <c r="F417" s="7">
@@ -14233,7 +14401,7 @@
       <c r="D418" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="E418" s="19">
+      <c r="E418" s="16">
         <v>7557</v>
       </c>
       <c r="F418" s="7">
@@ -14253,7 +14421,7 @@
       <c r="D419" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="E419" s="19">
+      <c r="E419" s="16">
         <v>7253</v>
       </c>
       <c r="F419" s="7">
@@ -14273,7 +14441,7 @@
       <c r="D420" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="E420" s="19">
+      <c r="E420" s="16">
         <v>7222</v>
       </c>
       <c r="F420" s="9" t="s">
@@ -14293,7 +14461,7 @@
       <c r="D421" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="E421" s="19">
+      <c r="E421" s="16">
         <v>7507</v>
       </c>
       <c r="F421" s="7">
@@ -14313,7 +14481,7 @@
       <c r="D422" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="E422" s="19">
+      <c r="E422" s="16">
         <v>7200</v>
       </c>
       <c r="F422" s="7">
@@ -14333,7 +14501,7 @@
       <c r="D423" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="E423" s="19">
+      <c r="E423" s="16">
         <v>7427</v>
       </c>
       <c r="F423" s="7">
@@ -14353,7 +14521,7 @@
       <c r="D424" s="6" t="s">
         <v>854</v>
       </c>
-      <c r="E424" s="19">
+      <c r="E424" s="16">
         <v>7279</v>
       </c>
       <c r="F424" s="7">
@@ -14373,7 +14541,7 @@
       <c r="D425" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="E425" s="19">
+      <c r="E425" s="16">
         <v>7577</v>
       </c>
       <c r="F425" s="7">
@@ -14393,7 +14561,7 @@
       <c r="D426" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="E426" s="19">
+      <c r="E426" s="16">
         <v>7596</v>
       </c>
       <c r="F426" s="7">
@@ -14413,7 +14581,7 @@
       <c r="D427" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="E427" s="19">
+      <c r="E427" s="16">
         <v>6998</v>
       </c>
       <c r="F427" s="7">
@@ -14433,7 +14601,7 @@
       <c r="D428" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="E428" s="19">
+      <c r="E428" s="16">
         <v>7290</v>
       </c>
       <c r="F428" s="7">
@@ -14453,7 +14621,7 @@
       <c r="D429" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="E429" s="19">
+      <c r="E429" s="16">
         <v>7150</v>
       </c>
       <c r="F429" s="7">
@@ -14473,7 +14641,7 @@
       <c r="D430" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="E430" s="19">
+      <c r="E430" s="16">
         <v>7546</v>
       </c>
       <c r="F430" s="7">
@@ -14493,7 +14661,7 @@
       <c r="D431" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="E431" s="19">
+      <c r="E431" s="16">
         <v>7487</v>
       </c>
       <c r="F431" s="7">
@@ -14513,7 +14681,7 @@
       <c r="D432" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="E432" s="19">
+      <c r="E432" s="16">
         <v>7215</v>
       </c>
       <c r="F432" s="7">
@@ -14533,7 +14701,7 @@
       <c r="D433" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="E433" s="19">
+      <c r="E433" s="16">
         <v>7523</v>
       </c>
       <c r="F433" s="7">
@@ -14553,7 +14721,7 @@
       <c r="D434" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="E434" s="19">
+      <c r="E434" s="16">
         <v>7095</v>
       </c>
       <c r="F434" s="7">
@@ -14573,7 +14741,7 @@
       <c r="D435" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="E435" s="19">
+      <c r="E435" s="16">
         <v>7174</v>
       </c>
       <c r="F435" s="7">
@@ -14593,7 +14761,7 @@
       <c r="D436" s="6" t="s">
         <v>878</v>
       </c>
-      <c r="E436" s="19">
+      <c r="E436" s="16">
         <v>7091</v>
       </c>
       <c r="F436" s="7">
@@ -14613,7 +14781,7 @@
       <c r="D437" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="E437" s="19">
+      <c r="E437" s="16">
         <v>7249</v>
       </c>
       <c r="F437" s="7">
@@ -14633,7 +14801,7 @@
       <c r="D438" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="E438" s="19">
+      <c r="E438" s="16">
         <v>7283</v>
       </c>
       <c r="F438" s="7">
@@ -14653,7 +14821,7 @@
       <c r="D439" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="E439" s="19">
+      <c r="E439" s="16">
         <v>7309</v>
       </c>
       <c r="F439" s="7">
@@ -14673,7 +14841,7 @@
       <c r="D440" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="E440" s="19">
+      <c r="E440" s="16">
         <v>7513</v>
       </c>
       <c r="F440" s="7">
@@ -14693,7 +14861,7 @@
       <c r="D441" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="E441" s="19">
+      <c r="E441" s="16">
         <v>7586</v>
       </c>
       <c r="F441" s="7">
@@ -14713,7 +14881,7 @@
       <c r="D442" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="E442" s="19">
+      <c r="E442" s="16">
         <v>7208</v>
       </c>
       <c r="F442" s="7">
@@ -14733,7 +14901,7 @@
       <c r="D443" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="E443" s="19">
+      <c r="E443" s="16">
         <v>7117</v>
       </c>
       <c r="F443" s="7">
@@ -14753,7 +14921,7 @@
       <c r="D444" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="E444" s="19">
+      <c r="E444" s="16">
         <v>7231</v>
       </c>
       <c r="F444" s="7">
@@ -14773,7 +14941,7 @@
       <c r="D445" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="E445" s="19">
+      <c r="E445" s="16">
         <v>7138</v>
       </c>
       <c r="F445" s="7">
@@ -14793,7 +14961,7 @@
       <c r="D446" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="E446" s="19">
+      <c r="E446" s="16">
         <v>7236</v>
       </c>
       <c r="F446" s="7">
@@ -14813,7 +14981,7 @@
       <c r="D447" s="6" t="s">
         <v>900</v>
       </c>
-      <c r="E447" s="19">
+      <c r="E447" s="16">
         <v>7421</v>
       </c>
       <c r="F447" s="7">
@@ -14833,7 +15001,7 @@
       <c r="D448" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="E448" s="19">
+      <c r="E448" s="16">
         <v>7311</v>
       </c>
       <c r="F448" s="7">
@@ -14853,7 +15021,7 @@
       <c r="D449" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="E449" s="19">
+      <c r="E449" s="16">
         <v>7196</v>
       </c>
       <c r="F449" s="7">
@@ -14873,7 +15041,7 @@
       <c r="D450" s="6" t="s">
         <v>906</v>
       </c>
-      <c r="E450" s="19">
+      <c r="E450" s="16">
         <v>7514</v>
       </c>
       <c r="F450" s="7">
@@ -14893,7 +15061,7 @@
       <c r="D451" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="E451" s="19">
+      <c r="E451" s="16">
         <v>7220</v>
       </c>
       <c r="F451" s="7">
@@ -14913,7 +15081,7 @@
       <c r="D452" s="6" t="s">
         <v>910</v>
       </c>
-      <c r="E452" s="19">
+      <c r="E452" s="16">
         <v>7503</v>
       </c>
       <c r="F452" s="7">
@@ -14933,7 +15101,7 @@
       <c r="D453" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="E453" s="19">
+      <c r="E453" s="16">
         <v>7221</v>
       </c>
       <c r="F453" s="7">
@@ -14953,7 +15121,7 @@
       <c r="D454" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="E454" s="19">
+      <c r="E454" s="16">
         <v>5200</v>
       </c>
       <c r="F454" s="7">
@@ -14973,7 +15141,7 @@
       <c r="D455" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="E455" s="19">
+      <c r="E455" s="16">
         <v>6997</v>
       </c>
       <c r="F455" s="7">
@@ -14993,7 +15161,7 @@
       <c r="D456" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="E456" s="19">
+      <c r="E456" s="16">
         <v>7601</v>
       </c>
       <c r="F456" s="7">
@@ -15013,7 +15181,7 @@
       <c r="D457" s="6" t="s">
         <v>920</v>
       </c>
-      <c r="E457" s="19">
+      <c r="E457" s="16">
         <v>7110</v>
       </c>
       <c r="F457" s="7">
@@ -15033,7 +15201,7 @@
       <c r="D458" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="E458" s="19">
+      <c r="E458" s="16">
         <v>7051</v>
       </c>
       <c r="F458" s="7">
@@ -15053,7 +15221,7 @@
       <c r="D459" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="E459" s="19">
+      <c r="E459" s="16">
         <v>7502</v>
       </c>
       <c r="F459" s="7">
@@ -15073,7 +15241,7 @@
       <c r="D460" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="E460" s="19">
+      <c r="E460" s="16">
         <v>7118</v>
       </c>
       <c r="F460" s="7">
@@ -15093,7 +15261,7 @@
       <c r="D461" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="E461" s="19">
+      <c r="E461" s="16">
         <v>7355</v>
       </c>
       <c r="F461" s="7">
@@ -15113,7 +15281,7 @@
       <c r="D462" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="E462" s="19">
+      <c r="E462" s="16">
         <v>7590</v>
       </c>
       <c r="F462" s="7">
@@ -15133,7 +15301,7 @@
       <c r="D463" s="6" t="s">
         <v>932</v>
       </c>
-      <c r="E463" s="19">
+      <c r="E463" s="16">
         <v>7255</v>
       </c>
       <c r="F463" s="7">
@@ -15153,7 +15321,7 @@
       <c r="D464" s="6" t="s">
         <v>934</v>
       </c>
-      <c r="E464" s="19">
+      <c r="E464" s="16">
         <v>7282</v>
       </c>
       <c r="F464" s="7">
@@ -15173,7 +15341,7 @@
       <c r="D465" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="E465" s="19">
+      <c r="E465" s="16">
         <v>7257</v>
       </c>
       <c r="F465" s="7">
@@ -15193,7 +15361,7 @@
       <c r="D466" s="6" t="s">
         <v>938</v>
       </c>
-      <c r="E466" s="19">
+      <c r="E466" s="16">
         <v>7488</v>
       </c>
       <c r="F466" s="7">
@@ -15213,7 +15381,7 @@
       <c r="D467" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="E467" s="19">
+      <c r="E467" s="16">
         <v>7390</v>
       </c>
       <c r="F467" s="7">
@@ -15233,7 +15401,7 @@
       <c r="D468" s="6" t="s">
         <v>942</v>
       </c>
-      <c r="E468" s="19">
+      <c r="E468" s="16">
         <v>7237</v>
       </c>
       <c r="F468" s="7">
@@ -15253,7 +15421,7 @@
       <c r="D469" s="6" t="s">
         <v>944</v>
       </c>
-      <c r="E469" s="19">
+      <c r="E469" s="16">
         <v>7555</v>
       </c>
       <c r="F469" s="7">
@@ -15273,7 +15441,7 @@
       <c r="D470" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="E470" s="19">
+      <c r="E470" s="16">
         <v>7199</v>
       </c>
       <c r="F470" s="7">
@@ -15293,7 +15461,7 @@
       <c r="D471" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="E471" s="19">
+      <c r="E471" s="16">
         <v>7395</v>
       </c>
       <c r="F471" s="7">
@@ -15313,7 +15481,7 @@
       <c r="D472" s="6" t="s">
         <v>950</v>
       </c>
-      <c r="E472" s="19">
+      <c r="E472" s="16">
         <v>7289</v>
       </c>
       <c r="F472" s="7">
@@ -15333,7 +15501,7 @@
       <c r="D473" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="E473" s="19">
+      <c r="E473" s="16">
         <v>7071</v>
       </c>
       <c r="F473" s="7">
@@ -15353,7 +15521,7 @@
       <c r="D474" s="6" t="s">
         <v>954</v>
       </c>
-      <c r="E474" s="19">
+      <c r="E474" s="16">
         <v>7305</v>
       </c>
       <c r="F474" s="7">
@@ -15373,7 +15541,7 @@
       <c r="D475" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="E475" s="19">
+      <c r="E475" s="16">
         <v>7128</v>
       </c>
       <c r="F475" s="7">
@@ -15393,7 +15561,7 @@
       <c r="D476" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="E476" s="19">
+      <c r="E476" s="16">
         <v>7267</v>
       </c>
       <c r="F476" s="7">
@@ -15413,7 +15581,7 @@
       <c r="D477" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="E477" s="19">
+      <c r="E477" s="16">
         <v>7636</v>
       </c>
       <c r="F477" s="7">
@@ -15433,7 +15601,7 @@
       <c r="D478" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="E478" s="19">
+      <c r="E478" s="16">
         <v>7534</v>
       </c>
       <c r="F478" s="7">
@@ -15453,7 +15621,7 @@
       <c r="D479" s="6" t="s">
         <v>964</v>
       </c>
-      <c r="E479" s="19">
+      <c r="E479" s="16">
         <v>7090</v>
       </c>
       <c r="F479" s="7">
@@ -15473,7 +15641,7 @@
       <c r="D480" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="E480" s="19">
+      <c r="E480" s="16">
         <v>7300</v>
       </c>
       <c r="F480" s="7">
@@ -15493,7 +15661,7 @@
       <c r="D481" s="6" t="s">
         <v>968</v>
       </c>
-      <c r="E481" s="19">
+      <c r="E481" s="16">
         <v>7235</v>
       </c>
       <c r="F481" s="7">
@@ -15513,7 +15681,7 @@
       <c r="D482" s="6" t="s">
         <v>970</v>
       </c>
-      <c r="E482" s="19">
+      <c r="E482" s="16">
         <v>7081</v>
       </c>
       <c r="F482" s="7">
@@ -15533,7 +15701,7 @@
       <c r="D483" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="E483" s="19">
+      <c r="E483" s="16">
         <v>7515</v>
       </c>
       <c r="F483" s="7">
@@ -15553,7 +15721,7 @@
       <c r="D484" s="6" t="s">
         <v>974</v>
       </c>
-      <c r="E484" s="19">
+      <c r="E484" s="16">
         <v>7176</v>
       </c>
       <c r="F484" s="9" t="s">
@@ -15573,7 +15741,7 @@
       <c r="D485" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="E485" s="19">
+      <c r="E485" s="16">
         <v>7508</v>
       </c>
       <c r="F485" s="7">
@@ -15593,7 +15761,7 @@
       <c r="D486" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="E486" s="19">
+      <c r="E486" s="16">
         <v>7172</v>
       </c>
       <c r="F486" s="7">
@@ -15613,7 +15781,7 @@
       <c r="D487" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="E487" s="19">
+      <c r="E487" s="16">
         <v>7520</v>
       </c>
       <c r="F487" s="7">
@@ -15633,7 +15801,7 @@
       <c r="D488" s="6" t="s">
         <v>982</v>
       </c>
-      <c r="E488" s="19">
+      <c r="E488" s="16">
         <v>7234</v>
       </c>
       <c r="F488" s="7">
@@ -15653,7 +15821,7 @@
       <c r="D489" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="E489" s="19">
+      <c r="E489" s="16">
         <v>6995</v>
       </c>
       <c r="F489" s="7">
@@ -15673,7 +15841,7 @@
       <c r="D490" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="E490" s="19">
+      <c r="E490" s="16">
         <v>7194</v>
       </c>
       <c r="F490" s="7">
@@ -15693,7 +15861,7 @@
       <c r="D491" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="E491" s="19">
+      <c r="E491" s="16">
         <v>7136</v>
       </c>
       <c r="F491" s="7">
@@ -15713,7 +15881,7 @@
       <c r="D492" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="E492" s="19">
+      <c r="E492" s="16">
         <v>7276</v>
       </c>
       <c r="F492" s="7">
@@ -15733,7 +15901,7 @@
       <c r="D493" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="E493" s="19">
+      <c r="E493" s="16">
         <v>7212</v>
       </c>
       <c r="F493" s="7">
@@ -15753,7 +15921,7 @@
       <c r="D494" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="E494" s="19">
+      <c r="E494" s="16">
         <v>7261</v>
       </c>
       <c r="F494" s="7">
@@ -15773,7 +15941,7 @@
       <c r="D495" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="E495" s="19">
+      <c r="E495" s="16">
         <v>7537</v>
       </c>
       <c r="F495" s="7">
@@ -15793,7 +15961,7 @@
       <c r="D496" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="E496" s="19">
+      <c r="E496" s="16">
         <v>7252</v>
       </c>
       <c r="F496" s="7">
@@ -15813,7 +15981,7 @@
       <c r="D497" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="E497" s="19">
+      <c r="E497" s="16">
         <v>7624</v>
       </c>
       <c r="F497" s="7">
@@ -15833,7 +16001,7 @@
       <c r="D498" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="E498" s="19">
+      <c r="E498" s="16">
         <v>7179</v>
       </c>
       <c r="F498" s="7">
@@ -15853,7 +16021,7 @@
       <c r="D499" s="6" t="s">
         <v>1004</v>
       </c>
-      <c r="E499" s="19">
+      <c r="E499" s="16">
         <v>7066</v>
       </c>
       <c r="F499" s="7">
@@ -15873,7 +16041,7 @@
       <c r="D500" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="E500" s="19">
+      <c r="E500" s="16">
         <v>7317</v>
       </c>
       <c r="F500" s="7">
@@ -15893,7 +16061,7 @@
       <c r="D501" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="E501" s="19">
+      <c r="E501" s="16">
         <v>7310</v>
       </c>
       <c r="F501" s="7">
@@ -15913,7 +16081,7 @@
       <c r="D502" s="6" t="s">
         <v>1010</v>
       </c>
-      <c r="E502" s="19">
+      <c r="E502" s="16">
         <v>7688</v>
       </c>
       <c r="F502" s="7">
@@ -15933,7 +16101,7 @@
       <c r="D503" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="E503" s="19">
+      <c r="E503" s="16">
         <v>7423</v>
       </c>
       <c r="F503" s="7">
@@ -15953,7 +16121,7 @@
       <c r="D504" s="6" t="s">
         <v>1014</v>
       </c>
-      <c r="E504" s="19">
+      <c r="E504" s="16">
         <v>7143</v>
       </c>
       <c r="F504" s="7">
@@ -15973,7 +16141,7 @@
       <c r="D505" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="E505" s="19">
+      <c r="E505" s="16">
         <v>7175</v>
       </c>
       <c r="F505" s="7">
@@ -15993,7 +16161,7 @@
       <c r="D506" s="6" t="s">
         <v>1018</v>
       </c>
-      <c r="E506" s="19">
+      <c r="E506" s="16">
         <v>7354</v>
       </c>
       <c r="F506" s="8" t="s">
@@ -16013,7 +16181,7 @@
       <c r="D507" s="6" t="s">
         <v>1020</v>
       </c>
-      <c r="E507" s="19">
+      <c r="E507" s="16">
         <v>7495</v>
       </c>
       <c r="F507" s="9" t="s">
@@ -16033,7 +16201,7 @@
       <c r="D508" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="E508" s="19">
+      <c r="E508" s="16">
         <v>7598</v>
       </c>
       <c r="F508" s="7">
@@ -16053,7 +16221,7 @@
       <c r="D509" s="6" t="s">
         <v>1024</v>
       </c>
-      <c r="E509" s="19">
+      <c r="E509" s="16">
         <v>7504</v>
       </c>
       <c r="F509" s="7">
@@ -16073,7 +16241,7 @@
       <c r="D510" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="E510" s="19">
+      <c r="E510" s="16">
         <v>7195</v>
       </c>
       <c r="F510" s="9" t="s">
@@ -16093,7 +16261,7 @@
       <c r="D511" s="6" t="s">
         <v>1028</v>
       </c>
-      <c r="E511" s="19">
+      <c r="E511" s="16">
         <v>7450</v>
       </c>
       <c r="F511" s="7">
@@ -16113,7 +16281,7 @@
       <c r="D512" s="6" t="s">
         <v>1030</v>
       </c>
-      <c r="E512" s="19">
+      <c r="E512" s="16">
         <v>7559</v>
       </c>
       <c r="F512" s="7">
@@ -16133,7 +16301,7 @@
       <c r="D513" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="E513" s="19">
+      <c r="E513" s="16">
         <v>7436</v>
       </c>
       <c r="F513" s="10" t="s">
@@ -16153,7 +16321,7 @@
       <c r="D514" s="6" t="s">
         <v>1034</v>
       </c>
-      <c r="E514" s="19">
+      <c r="E514" s="16">
         <v>7579</v>
       </c>
       <c r="F514" s="7">
@@ -16173,7 +16341,7 @@
       <c r="D515" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="E515" s="19">
+      <c r="E515" s="16">
         <v>7288</v>
       </c>
       <c r="F515" s="7">
@@ -16193,7 +16361,7 @@
       <c r="D516" s="6" t="s">
         <v>1038</v>
       </c>
-      <c r="E516" s="19">
+      <c r="E516" s="16">
         <v>7245</v>
       </c>
       <c r="F516" s="7">
@@ -16213,7 +16381,7 @@
       <c r="D517" s="6" t="s">
         <v>1040</v>
       </c>
-      <c r="E517" s="19">
+      <c r="E517" s="16">
         <v>7284</v>
       </c>
       <c r="F517" s="7">
@@ -16233,7 +16401,7 @@
       <c r="D518" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="E518" s="19">
+      <c r="E518" s="16">
         <v>7458</v>
       </c>
       <c r="F518" s="7">
@@ -16253,7 +16421,7 @@
       <c r="D519" s="6" t="s">
         <v>1044</v>
       </c>
-      <c r="E519" s="19">
+      <c r="E519" s="16">
         <v>7168</v>
       </c>
       <c r="F519" s="7">
@@ -16273,7 +16441,7 @@
       <c r="D520" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="E520" s="19">
+      <c r="E520" s="16">
         <v>7148</v>
       </c>
       <c r="F520" s="9" t="s">
@@ -16293,7 +16461,7 @@
       <c r="D521" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="E521" s="19">
+      <c r="E521" s="16">
         <v>7604</v>
       </c>
       <c r="F521" s="7">
@@ -16313,7 +16481,7 @@
       <c r="D522" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="E522" s="19">
+      <c r="E522" s="16">
         <v>7225</v>
       </c>
       <c r="F522" s="7">
@@ -16333,7 +16501,7 @@
       <c r="D523" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="E523" s="19">
+      <c r="E523" s="16">
         <v>7217</v>
       </c>
       <c r="F523" s="7">
@@ -16353,7 +16521,7 @@
       <c r="D524" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="E524" s="19">
+      <c r="E524" s="16">
         <v>7302</v>
       </c>
       <c r="F524" s="7">
@@ -16373,7 +16541,7 @@
       <c r="D525" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="E525" s="19">
+      <c r="E525" s="16">
         <v>7524</v>
       </c>
       <c r="F525" s="7">
@@ -16393,7 +16561,7 @@
       <c r="D526" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="E526" s="19">
+      <c r="E526" s="16">
         <v>7219</v>
       </c>
       <c r="F526" s="7">
@@ -16413,7 +16581,7 @@
       <c r="D527" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="E527" s="19">
+      <c r="E527" s="16">
         <v>7603</v>
       </c>
       <c r="F527" s="7">
@@ -16433,7 +16601,7 @@
       <c r="D528" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="E528" s="19">
+      <c r="E528" s="16">
         <v>7271</v>
       </c>
       <c r="F528" s="7">
@@ -16453,7 +16621,7 @@
       <c r="D529" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="E529" s="19">
+      <c r="E529" s="16">
         <v>7550</v>
       </c>
       <c r="F529" s="7">
@@ -16473,14 +16641,14 @@
       <c r="D530" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="E530" s="19">
+      <c r="E530" s="16">
         <v>7209</v>
       </c>
       <c r="F530" s="8" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>12</v>
       </c>
@@ -16493,7 +16661,7 @@
       <c r="D531" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="E531" s="19">
+      <c r="E531" s="16">
         <v>7599</v>
       </c>
       <c r="F531" s="10" t="s">
@@ -16513,7 +16681,7 @@
       <c r="D532" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="E532" s="19">
+      <c r="E532" s="16">
         <v>7554</v>
       </c>
       <c r="F532" s="7">
@@ -16533,7 +16701,7 @@
       <c r="D533" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="E533" s="19">
+      <c r="E533" s="16">
         <v>7545</v>
       </c>
       <c r="F533" s="7">
@@ -16553,7 +16721,7 @@
       <c r="D534" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="E534" s="19">
+      <c r="E534" s="16">
         <v>7132</v>
       </c>
       <c r="F534" s="7">
@@ -16573,7 +16741,7 @@
       <c r="D535" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="E535" s="19">
+      <c r="E535" s="16">
         <v>7104</v>
       </c>
       <c r="F535" s="7">
@@ -16593,7 +16761,7 @@
       <c r="D536" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="E536" s="19">
+      <c r="E536" s="16">
         <v>7116</v>
       </c>
       <c r="F536" s="7">
@@ -16613,7 +16781,7 @@
       <c r="D537" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="E537" s="19">
+      <c r="E537" s="16">
         <v>7528</v>
       </c>
       <c r="F537" s="7">
@@ -16633,7 +16801,7 @@
       <c r="D538" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="E538" s="19">
+      <c r="E538" s="16">
         <v>7106</v>
       </c>
       <c r="F538" s="7">
@@ -16653,7 +16821,7 @@
       <c r="D539" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="E539" s="19">
+      <c r="E539" s="16">
         <v>7218</v>
       </c>
       <c r="F539" s="7">
@@ -16673,7 +16841,7 @@
       <c r="D540" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="E540" s="19">
+      <c r="E540" s="16">
         <v>6984</v>
       </c>
       <c r="F540" s="7">
@@ -16693,7 +16861,7 @@
       <c r="D541" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="E541" s="19">
+      <c r="E541" s="16">
         <v>7120</v>
       </c>
       <c r="F541" s="7">
@@ -16713,7 +16881,7 @@
       <c r="D542" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="E542" s="19">
+      <c r="E542" s="16">
         <v>7526</v>
       </c>
       <c r="F542" s="7">
@@ -16733,7 +16901,7 @@
       <c r="D543" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="E543" s="19">
+      <c r="E543" s="16">
         <v>7201</v>
       </c>
       <c r="F543" s="7">
@@ -16753,7 +16921,7 @@
       <c r="D544" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="E544" s="19">
+      <c r="E544" s="16">
         <v>7584</v>
       </c>
       <c r="F544" s="7">
@@ -16773,7 +16941,7 @@
       <c r="D545" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="E545" s="19">
+      <c r="E545" s="16">
         <v>7501</v>
       </c>
       <c r="F545" s="7">
@@ -16793,7 +16961,7 @@
       <c r="D546" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="E546" s="19">
+      <c r="E546" s="16">
         <v>6982</v>
       </c>
       <c r="F546" s="7">
@@ -16813,7 +16981,7 @@
       <c r="D547" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="E547" s="19">
+      <c r="E547" s="16">
         <v>7056</v>
       </c>
       <c r="F547" s="7">
@@ -16833,7 +17001,7 @@
       <c r="D548" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="E548" s="19">
+      <c r="E548" s="16">
         <v>7298</v>
       </c>
       <c r="F548" s="7">
@@ -16853,7 +17021,7 @@
       <c r="D549" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="E549" s="19">
+      <c r="E549" s="16">
         <v>7273</v>
       </c>
       <c r="F549" s="7">
@@ -16873,7 +17041,7 @@
       <c r="D550" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="E550" s="19">
+      <c r="E550" s="16">
         <v>7064</v>
       </c>
       <c r="F550" s="7">
@@ -16893,7 +17061,7 @@
       <c r="D551" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="E551" s="19">
+      <c r="E551" s="16">
         <v>7562</v>
       </c>
       <c r="F551" s="7">
@@ -16913,7 +17081,7 @@
       <c r="D552" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="E552" s="19">
+      <c r="E552" s="16">
         <v>7250</v>
       </c>
       <c r="F552" s="7">
@@ -16933,7 +17101,7 @@
       <c r="D553" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="E553" s="19">
+      <c r="E553" s="16">
         <v>7125</v>
       </c>
       <c r="F553" s="7">
@@ -16953,7 +17121,7 @@
       <c r="D554" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="E554" s="19">
+      <c r="E554" s="16">
         <v>7224</v>
       </c>
       <c r="F554" s="7">
@@ -16973,7 +17141,7 @@
       <c r="D555" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="E555" s="19">
+      <c r="E555" s="16">
         <v>7260</v>
       </c>
       <c r="F555" s="7">
@@ -16993,7 +17161,7 @@
       <c r="D556" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="E556" s="19">
+      <c r="E556" s="16">
         <v>7183</v>
       </c>
       <c r="F556" s="7">
@@ -17013,7 +17181,7 @@
       <c r="D557" s="6" t="s">
         <v>1120</v>
       </c>
-      <c r="E557" s="19">
+      <c r="E557" s="16">
         <v>7281</v>
       </c>
       <c r="F557" s="7">
@@ -17033,7 +17201,7 @@
       <c r="D558" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="E558" s="19">
+      <c r="E558" s="16">
         <v>7597</v>
       </c>
       <c r="F558" s="7">
@@ -17053,7 +17221,7 @@
       <c r="D559" s="6" t="s">
         <v>1124</v>
       </c>
-      <c r="E559" s="19">
+      <c r="E559" s="16">
         <v>7206</v>
       </c>
       <c r="F559" s="7">
@@ -17073,7 +17241,7 @@
       <c r="D560" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="E560" s="19">
+      <c r="E560" s="16">
         <v>7583</v>
       </c>
       <c r="F560" s="7">
@@ -17093,7 +17261,7 @@
       <c r="D561" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="E561" s="19">
+      <c r="E561" s="16">
         <v>7418</v>
       </c>
       <c r="F561" s="7">
@@ -17113,7 +17281,7 @@
       <c r="D562" s="6" t="s">
         <v>1130</v>
       </c>
-      <c r="E562" s="19">
+      <c r="E562" s="16">
         <v>7052</v>
       </c>
       <c r="F562" s="7">
@@ -17133,7 +17301,7 @@
       <c r="D563" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="E563" s="19">
+      <c r="E563" s="16">
         <v>7246</v>
       </c>
       <c r="F563" s="7">
@@ -17153,7 +17321,7 @@
       <c r="D564" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="E564" s="19">
+      <c r="E564" s="16">
         <v>7301</v>
       </c>
       <c r="F564" s="7">
@@ -17173,7 +17341,7 @@
       <c r="D565" s="6" t="s">
         <v>1136</v>
       </c>
-      <c r="E565" s="19">
+      <c r="E565" s="16">
         <v>7512</v>
       </c>
       <c r="F565" s="7">
@@ -17193,7 +17361,7 @@
       <c r="D566" s="6" t="s">
         <v>1138</v>
       </c>
-      <c r="E566" s="19">
+      <c r="E566" s="16">
         <v>7522</v>
       </c>
       <c r="F566" s="7">
@@ -17213,7 +17381,7 @@
       <c r="D567" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="E567" s="19">
+      <c r="E567" s="16">
         <v>7216</v>
       </c>
       <c r="F567" s="7">
@@ -17233,7 +17401,7 @@
       <c r="D568" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="E568" s="19">
+      <c r="E568" s="16">
         <v>7593</v>
       </c>
       <c r="F568" s="7">
@@ -17253,7 +17421,7 @@
       <c r="D569" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="E569" s="19">
+      <c r="E569" s="16">
         <v>7594</v>
       </c>
       <c r="F569" s="7">
@@ -17273,7 +17441,7 @@
       <c r="D570" s="6" t="s">
         <v>1146</v>
       </c>
-      <c r="E570" s="19">
+      <c r="E570" s="16">
         <v>7239</v>
       </c>
       <c r="F570" s="7">
@@ -17293,7 +17461,7 @@
       <c r="D571" s="6" t="s">
         <v>1148</v>
       </c>
-      <c r="E571" s="19">
+      <c r="E571" s="16">
         <v>7197</v>
       </c>
       <c r="F571" s="7">
@@ -17313,7 +17481,7 @@
       <c r="D572" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="E572" s="19">
+      <c r="E572" s="16">
         <v>6872</v>
       </c>
       <c r="F572" s="7">
@@ -17333,7 +17501,7 @@
       <c r="D573" s="6" t="s">
         <v>1152</v>
       </c>
-      <c r="E573" s="19">
+      <c r="E573" s="16">
         <v>7082</v>
       </c>
       <c r="F573" s="7">
@@ -17353,7 +17521,7 @@
       <c r="D574" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="E574" s="19">
+      <c r="E574" s="16">
         <v>7139</v>
       </c>
       <c r="F574" s="7">
@@ -17373,7 +17541,7 @@
       <c r="D575" s="6" t="s">
         <v>1156</v>
       </c>
-      <c r="E575" s="19">
+      <c r="E575" s="16">
         <v>7275</v>
       </c>
       <c r="F575" s="7">
@@ -17393,7 +17561,7 @@
       <c r="D576" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="E576" s="19">
+      <c r="E576" s="16">
         <v>7643</v>
       </c>
       <c r="F576" s="7">
@@ -17413,7 +17581,7 @@
       <c r="D577" s="6" t="s">
         <v>1160</v>
       </c>
-      <c r="E577" s="19">
+      <c r="E577" s="16">
         <v>7207</v>
       </c>
       <c r="F577" s="7">
@@ -17433,7 +17601,7 @@
       <c r="D578" s="6" t="s">
         <v>1162</v>
       </c>
-      <c r="E578" s="19">
+      <c r="E578" s="16">
         <v>7411</v>
       </c>
       <c r="F578" s="10" t="s">
@@ -17453,7 +17621,7 @@
       <c r="D579" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="E579" s="19">
+      <c r="E579" s="16">
         <v>7482</v>
       </c>
       <c r="F579" s="7">
@@ -17473,7 +17641,7 @@
       <c r="D580" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="E580" s="19">
+      <c r="E580" s="16">
         <v>7270</v>
       </c>
       <c r="F580" s="7">
@@ -17493,7 +17661,7 @@
       <c r="D581" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="E581" s="19">
+      <c r="E581" s="16">
         <v>7578</v>
       </c>
       <c r="F581" s="7">
@@ -17513,7 +17681,7 @@
       <c r="D582" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="E582" s="19">
+      <c r="E582" s="16">
         <v>7205</v>
       </c>
       <c r="F582" s="7">
@@ -17533,7 +17701,7 @@
       <c r="D583" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="E583" s="19">
+      <c r="E583" s="16">
         <v>7553</v>
       </c>
       <c r="F583" s="7">
@@ -17553,7 +17721,7 @@
       <c r="D584" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="E584" s="19">
+      <c r="E584" s="16">
         <v>7203</v>
       </c>
       <c r="F584" s="7">
@@ -17573,7 +17741,7 @@
       <c r="D585" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="E585" s="19">
+      <c r="E585" s="16">
         <v>7451</v>
       </c>
       <c r="F585" s="7">
@@ -17593,7 +17761,7 @@
       <c r="D586" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="E586" s="19">
+      <c r="E586" s="16">
         <v>7356</v>
       </c>
       <c r="F586" s="7">
@@ -17613,7 +17781,7 @@
       <c r="D587" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="E587" s="19">
+      <c r="E587" s="16">
         <v>7211</v>
       </c>
       <c r="F587" s="7">
@@ -17633,7 +17801,7 @@
       <c r="D588" s="6" t="s">
         <v>1182</v>
       </c>
-      <c r="E588" s="19">
+      <c r="E588" s="16">
         <v>7180</v>
       </c>
       <c r="F588" s="7">
@@ -17653,7 +17821,7 @@
       <c r="D589" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="E589" s="19">
+      <c r="E589" s="16">
         <v>7243</v>
       </c>
       <c r="F589" s="7">
@@ -17673,7 +17841,7 @@
       <c r="D590" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="E590" s="19">
+      <c r="E590" s="16">
         <v>7592</v>
       </c>
       <c r="F590" s="7">
@@ -17693,7 +17861,7 @@
       <c r="D591" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="E591" s="19">
+      <c r="E591" s="16">
         <v>7264</v>
       </c>
       <c r="F591" s="7">
@@ -17713,7 +17881,7 @@
       <c r="D592" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="E592" s="19">
+      <c r="E592" s="16">
         <v>7254</v>
       </c>
       <c r="F592" s="8" t="s">
@@ -17733,7 +17901,7 @@
       <c r="D593" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="E593" s="19">
+      <c r="E593" s="16">
         <v>7536</v>
       </c>
       <c r="F593" s="7">
@@ -17753,7 +17921,7 @@
       <c r="D594" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="E594" s="19">
+      <c r="E594" s="16">
         <v>7572</v>
       </c>
       <c r="F594" s="7">
@@ -17773,7 +17941,7 @@
       <c r="D595" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="E595" s="19">
+      <c r="E595" s="16">
         <v>7475</v>
       </c>
       <c r="F595" s="7">
@@ -17793,7 +17961,7 @@
       <c r="D596" s="6" t="s">
         <v>1196</v>
       </c>
-      <c r="E596" s="19">
+      <c r="E596" s="16">
         <v>7256</v>
       </c>
       <c r="F596" s="7">
@@ -17813,7 +17981,7 @@
       <c r="D597" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="E597" s="19">
+      <c r="E597" s="16">
         <v>7315</v>
       </c>
       <c r="F597" s="7">
@@ -17833,7 +18001,7 @@
       <c r="D598" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="E598" s="19">
+      <c r="E598" s="16">
         <v>7430</v>
       </c>
       <c r="F598" s="7">
@@ -17853,7 +18021,7 @@
       <c r="D599" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="E599" s="19">
+      <c r="E599" s="16">
         <v>7204</v>
       </c>
       <c r="F599" s="7">
@@ -17873,7 +18041,7 @@
       <c r="D600" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="E600" s="19">
+      <c r="E600" s="16">
         <v>7147</v>
       </c>
       <c r="F600" s="7">
@@ -17893,7 +18061,7 @@
       <c r="D601" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="E601" s="19">
+      <c r="E601" s="16">
         <v>7050</v>
       </c>
       <c r="F601" s="7">
@@ -17913,7 +18081,7 @@
       <c r="D602" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="E602" s="19">
+      <c r="E602" s="16">
         <v>7280</v>
       </c>
       <c r="F602" s="7">
@@ -17933,7 +18101,7 @@
       <c r="D603" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="E603" s="19">
+      <c r="E603" s="16">
         <v>7057</v>
       </c>
       <c r="F603" s="7">
@@ -17953,7 +18121,7 @@
       <c r="D604" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="E604" s="19">
+      <c r="E604" s="16">
         <v>7258</v>
       </c>
       <c r="F604" s="7">
@@ -17973,7 +18141,7 @@
       <c r="D605" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="E605" s="19">
+      <c r="E605" s="16">
         <v>7296</v>
       </c>
       <c r="F605" s="10" t="s">
@@ -17993,7 +18161,7 @@
       <c r="D606" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="E606" s="19">
+      <c r="E606" s="16">
         <v>7548</v>
       </c>
       <c r="F606" s="8" t="s">
@@ -18013,7 +18181,7 @@
       <c r="D607" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="E607" s="19">
+      <c r="E607" s="16">
         <v>7543</v>
       </c>
       <c r="F607" s="7">
@@ -18033,7 +18201,7 @@
       <c r="D608" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="E608" s="19">
+      <c r="E608" s="16">
         <v>7303</v>
       </c>
       <c r="F608" s="7">
@@ -18053,7 +18221,7 @@
       <c r="D609" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="E609" s="19">
+      <c r="E609" s="16">
         <v>7560</v>
       </c>
       <c r="F609" s="7">
@@ -18073,7 +18241,7 @@
       <c r="D610" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="E610" s="19">
+      <c r="E610" s="16">
         <v>7274</v>
       </c>
       <c r="F610" s="7">
@@ -18093,7 +18261,7 @@
       <c r="D611" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="E611" s="19">
+      <c r="E611" s="16">
         <v>7186</v>
       </c>
       <c r="F611" s="7">
@@ -18113,7 +18281,7 @@
       <c r="D612" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="E612" s="19">
+      <c r="E612" s="16">
         <v>7278</v>
       </c>
       <c r="F612" s="7">
@@ -18133,7 +18301,7 @@
       <c r="D613" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="E613" s="19">
+      <c r="E613" s="16">
         <v>7105</v>
       </c>
       <c r="F613" s="7">
@@ -18153,7 +18321,7 @@
       <c r="D614" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="E614" s="19">
+      <c r="E614" s="16">
         <v>7092</v>
       </c>
       <c r="F614" s="7">
@@ -18173,7 +18341,7 @@
       <c r="D615" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="E615" s="19">
+      <c r="E615" s="16">
         <v>7177</v>
       </c>
       <c r="F615" s="7">
@@ -18193,7 +18361,7 @@
       <c r="D616" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="E616" s="19">
+      <c r="E616" s="16">
         <v>7049</v>
       </c>
       <c r="F616" s="7">
@@ -18213,7 +18381,7 @@
       <c r="D617" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="E617" s="19">
+      <c r="E617" s="16">
         <v>7591</v>
       </c>
       <c r="F617" s="7">
@@ -18233,7 +18401,7 @@
       <c r="D618" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="E618" s="19">
+      <c r="E618" s="16">
         <v>7292</v>
       </c>
       <c r="F618" s="7">
@@ -18253,7 +18421,7 @@
       <c r="D619" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="E619" s="19">
+      <c r="E619" s="16">
         <v>7533</v>
       </c>
       <c r="F619" s="7">
@@ -18273,7 +18441,7 @@
       <c r="D620" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="E620" s="19">
+      <c r="E620" s="16">
         <v>7272</v>
       </c>
       <c r="F620" s="7">
@@ -18293,7 +18461,7 @@
       <c r="D621" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="E621" s="19">
+      <c r="E621" s="16">
         <v>7269</v>
       </c>
       <c r="F621" s="7">
@@ -18313,7 +18481,7 @@
       <c r="D622" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="E622" s="19">
+      <c r="E622" s="16">
         <v>7291</v>
       </c>
       <c r="F622" s="7">
@@ -18333,7 +18501,7 @@
       <c r="D623" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="E623" s="19">
+      <c r="E623" s="16">
         <v>7313</v>
       </c>
       <c r="F623" s="7">
@@ -18353,7 +18521,7 @@
       <c r="D624" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="E624" s="19">
+      <c r="E624" s="16">
         <v>7268</v>
       </c>
       <c r="F624" s="7">
@@ -18373,7 +18541,7 @@
       <c r="D625" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="E625" s="19">
+      <c r="E625" s="16">
         <v>7460</v>
       </c>
       <c r="F625" s="7">
@@ -18393,7 +18561,7 @@
       <c r="D626" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="E626" s="19">
+      <c r="E626" s="16">
         <v>1950</v>
       </c>
       <c r="F626" s="7">
@@ -18413,7 +18581,7 @@
       <c r="D627" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="E627" s="19">
+      <c r="E627" s="16">
         <v>7213</v>
       </c>
       <c r="F627" s="7">
@@ -18433,7 +18601,7 @@
       <c r="D628" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="E628" s="19">
+      <c r="E628" s="16">
         <v>150</v>
       </c>
       <c r="F628" s="7">
@@ -18453,7 +18621,7 @@
       <c r="D629" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="E629" s="19">
+      <c r="E629" s="16">
         <v>5000</v>
       </c>
       <c r="F629" s="7">
@@ -18473,7 +18641,7 @@
       <c r="D630" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="E630" s="19">
+      <c r="E630" s="16">
         <v>7153</v>
       </c>
       <c r="F630" s="7">
@@ -18493,7 +18661,7 @@
       <c r="D631" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="E631" s="19">
+      <c r="E631" s="16">
         <v>7358</v>
       </c>
       <c r="F631" s="7">
@@ -18513,7 +18681,7 @@
       <c r="D632" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="E632" s="19">
+      <c r="E632" s="16">
         <v>7363</v>
       </c>
       <c r="F632" s="7">
@@ -18533,7 +18701,7 @@
       <c r="D633" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="E633" s="19">
+      <c r="E633" s="16">
         <v>7067</v>
       </c>
       <c r="F633" s="7">
@@ -18553,7 +18721,7 @@
       <c r="D634" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="E634" s="19">
+      <c r="E634" s="16">
         <v>5450</v>
       </c>
       <c r="F634" s="7">
@@ -18573,7 +18741,7 @@
       <c r="D635" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="E635" s="19">
+      <c r="E635" s="16">
         <v>5500</v>
       </c>
       <c r="F635" s="7">
@@ -18593,7 +18761,7 @@
       <c r="D636" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="E636" s="19">
+      <c r="E636" s="16">
         <v>6897</v>
       </c>
       <c r="F636" s="7">
@@ -18613,7 +18781,7 @@
       <c r="D637" s="6" t="s">
         <v>1278</v>
       </c>
-      <c r="E637" s="19">
+      <c r="E637" s="16">
         <v>6936</v>
       </c>
       <c r="F637" s="7">
@@ -18633,7 +18801,7 @@
       <c r="D638" s="6" t="s">
         <v>1280</v>
       </c>
-      <c r="E638" s="19">
+      <c r="E638" s="16">
         <v>7046</v>
       </c>
       <c r="F638" s="7">
@@ -18653,7 +18821,7 @@
       <c r="D639" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="E639" s="19">
+      <c r="E639" s="16">
         <v>7164</v>
       </c>
       <c r="F639" s="7">
@@ -18673,7 +18841,7 @@
       <c r="D640" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="E640" s="19">
+      <c r="E640" s="16">
         <v>6911</v>
       </c>
       <c r="F640" s="7">
@@ -18693,7 +18861,7 @@
       <c r="D641" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="E641" s="19">
+      <c r="E641" s="16">
         <v>7433</v>
       </c>
       <c r="F641" s="7">
@@ -18713,7 +18881,7 @@
       <c r="D642" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="E642" s="19">
+      <c r="E642" s="16">
         <v>7486</v>
       </c>
       <c r="F642" s="7">
@@ -18733,7 +18901,7 @@
       <c r="D643" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="E643" s="19">
+      <c r="E643" s="16">
         <v>7410</v>
       </c>
       <c r="F643" s="7">
@@ -18753,7 +18921,7 @@
       <c r="D644" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="E644" s="19">
+      <c r="E644" s="16">
         <v>7372</v>
       </c>
       <c r="F644" s="7">
@@ -18773,7 +18941,7 @@
       <c r="D645" s="6" t="s">
         <v>1294</v>
       </c>
-      <c r="E645" s="19">
+      <c r="E645" s="16">
         <v>7400</v>
       </c>
       <c r="F645" s="7">
@@ -18793,7 +18961,7 @@
       <c r="D646" s="6" t="s">
         <v>1296</v>
       </c>
-      <c r="E646" s="19">
+      <c r="E646" s="16">
         <v>7402</v>
       </c>
       <c r="F646" s="7">
@@ -18813,7 +18981,7 @@
       <c r="D647" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="E647" s="19">
+      <c r="E647" s="16">
         <v>7453</v>
       </c>
       <c r="F647" s="7">
@@ -18833,7 +19001,7 @@
       <c r="D648" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="E648" s="19">
+      <c r="E648" s="16">
         <v>7366</v>
       </c>
       <c r="F648" s="7">
@@ -18853,7 +19021,7 @@
       <c r="D649" s="6" t="s">
         <v>1302</v>
       </c>
-      <c r="E649" s="19">
+      <c r="E649" s="16">
         <v>7364</v>
       </c>
       <c r="F649" s="7">
@@ -18873,7 +19041,7 @@
       <c r="D650" s="6" t="s">
         <v>1304</v>
       </c>
-      <c r="E650" s="19">
+      <c r="E650" s="16">
         <v>7113</v>
       </c>
       <c r="F650" s="7">
@@ -18893,7 +19061,7 @@
       <c r="D651" s="6" t="s">
         <v>1306</v>
       </c>
-      <c r="E651" s="19">
+      <c r="E651" s="16">
         <v>6991</v>
       </c>
       <c r="F651" s="7">
@@ -18913,7 +19081,7 @@
       <c r="D652" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="E652" s="19">
+      <c r="E652" s="16">
         <v>7126</v>
       </c>
       <c r="F652" s="7">
@@ -18933,7 +19101,7 @@
       <c r="D653" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="E653" s="19">
+      <c r="E653" s="16">
         <v>6977</v>
       </c>
       <c r="F653" s="7">
@@ -18953,7 +19121,7 @@
       <c r="D654" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="E654" s="19">
+      <c r="E654" s="16">
         <v>6931</v>
       </c>
       <c r="F654" s="7">
@@ -18973,7 +19141,7 @@
       <c r="D655" s="6" t="s">
         <v>1314</v>
       </c>
-      <c r="E655" s="19">
+      <c r="E655" s="16">
         <v>7331</v>
       </c>
       <c r="F655" s="7">
@@ -18993,7 +19161,7 @@
       <c r="D656" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="E656" s="19">
+      <c r="E656" s="16">
         <v>7443</v>
       </c>
       <c r="F656" s="7">
@@ -19013,7 +19181,7 @@
       <c r="D657" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="E657" s="19">
+      <c r="E657" s="16">
         <v>7146</v>
       </c>
       <c r="F657" s="7">
@@ -19033,7 +19201,7 @@
       <c r="D658" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="E658" s="19">
+      <c r="E658" s="16">
         <v>7191</v>
       </c>
       <c r="F658" s="7">
@@ -19053,7 +19221,7 @@
       <c r="D659" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="E659" s="19">
+      <c r="E659" s="16">
         <v>7357</v>
       </c>
       <c r="F659" s="7">
@@ -19073,7 +19241,7 @@
       <c r="D660" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="E660" s="19">
+      <c r="E660" s="16">
         <v>6956</v>
       </c>
       <c r="F660" s="7">
@@ -19093,7 +19261,7 @@
       <c r="D661" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="E661" s="19">
+      <c r="E661" s="16">
         <v>7416</v>
       </c>
       <c r="F661" s="7">
@@ -19113,7 +19281,7 @@
       <c r="D662" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="E662" s="19">
+      <c r="E662" s="16">
         <v>7330</v>
       </c>
       <c r="F662" s="7">
@@ -19133,7 +19301,7 @@
       <c r="D663" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="E663" s="19">
+      <c r="E663" s="16">
         <v>7192</v>
       </c>
       <c r="F663" s="7">
@@ -19153,7 +19321,7 @@
       <c r="D664" s="6" t="s">
         <v>1332</v>
       </c>
-      <c r="E664" s="19">
+      <c r="E664" s="16">
         <v>7404</v>
       </c>
       <c r="F664" s="7">
@@ -19173,7 +19341,7 @@
       <c r="D665" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="E665" s="19">
+      <c r="E665" s="16">
         <v>7449</v>
       </c>
       <c r="F665" s="7">
@@ -19193,7 +19361,7 @@
       <c r="D666" s="6" t="s">
         <v>1336</v>
       </c>
-      <c r="E666" s="19">
+      <c r="E666" s="16">
         <v>7469</v>
       </c>
       <c r="F666" s="7">
@@ -19213,7 +19381,7 @@
       <c r="D667" s="6" t="s">
         <v>1338</v>
       </c>
-      <c r="E667" s="19">
+      <c r="E667" s="16">
         <v>7332</v>
       </c>
       <c r="F667" s="7">
@@ -19233,7 +19401,7 @@
       <c r="D668" s="6" t="s">
         <v>1340</v>
       </c>
-      <c r="E668" s="19">
+      <c r="E668" s="16">
         <v>7026</v>
       </c>
       <c r="F668" s="7">
@@ -19253,7 +19421,7 @@
       <c r="D669" s="6" t="s">
         <v>1342</v>
       </c>
-      <c r="E669" s="19">
+      <c r="E669" s="16">
         <v>7171</v>
       </c>
       <c r="F669" s="7">
@@ -19273,7 +19441,7 @@
       <c r="D670" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="E670" s="19">
+      <c r="E670" s="16">
         <v>7241</v>
       </c>
       <c r="F670" s="7">
@@ -19293,7 +19461,7 @@
       <c r="D671" s="6" t="s">
         <v>1346</v>
       </c>
-      <c r="E671" s="19">
+      <c r="E671" s="16">
         <v>6939</v>
       </c>
       <c r="F671" s="7">
@@ -19313,7 +19481,7 @@
       <c r="D672" s="6" t="s">
         <v>1348</v>
       </c>
-      <c r="E672" s="19">
+      <c r="E672" s="16">
         <v>7043</v>
       </c>
       <c r="F672" s="7">
@@ -19333,7 +19501,7 @@
       <c r="D673" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="E673" s="19">
+      <c r="E673" s="16">
         <v>7321</v>
       </c>
       <c r="F673" s="7">
@@ -19353,7 +19521,7 @@
       <c r="D674" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="E674" s="19">
+      <c r="E674" s="16">
         <v>7401</v>
       </c>
       <c r="F674" s="7">
@@ -19373,7 +19541,7 @@
       <c r="D675" s="6" t="s">
         <v>1354</v>
       </c>
-      <c r="E675" s="19">
+      <c r="E675" s="16">
         <v>7238</v>
       </c>
       <c r="F675" s="7">
@@ -19393,7 +19561,7 @@
       <c r="D676" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="E676" s="19">
+      <c r="E676" s="16">
         <v>7131</v>
       </c>
       <c r="F676" s="7">
@@ -19413,7 +19581,7 @@
       <c r="D677" s="6" t="s">
         <v>1358</v>
       </c>
-      <c r="E677" s="19">
+      <c r="E677" s="16">
         <v>7119</v>
       </c>
       <c r="F677" s="7">
@@ -19433,7 +19601,7 @@
       <c r="D678" s="6" t="s">
         <v>1360</v>
       </c>
-      <c r="E678" s="19">
+      <c r="E678" s="16">
         <v>7434</v>
       </c>
       <c r="F678" s="7">
@@ -19453,7 +19621,7 @@
       <c r="D679" s="6" t="s">
         <v>1362</v>
       </c>
-      <c r="E679" s="19">
+      <c r="E679" s="16">
         <v>7122</v>
       </c>
       <c r="F679" s="7">
@@ -19473,7 +19641,7 @@
       <c r="D680" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="E680" s="19">
+      <c r="E680" s="16">
         <v>7625</v>
       </c>
       <c r="F680" s="7">
@@ -19493,7 +19661,7 @@
       <c r="D681" s="6" t="s">
         <v>1366</v>
       </c>
-      <c r="E681" s="19">
+      <c r="E681" s="16">
         <v>7010</v>
       </c>
       <c r="F681" s="7">
@@ -19513,7 +19681,7 @@
       <c r="D682" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="E682" s="19">
+      <c r="E682" s="16">
         <v>7190</v>
       </c>
       <c r="F682" s="7">
@@ -19533,7 +19701,7 @@
       <c r="D683" s="6" t="s">
         <v>1370</v>
       </c>
-      <c r="E683" s="19">
+      <c r="E683" s="16">
         <v>6921</v>
       </c>
       <c r="F683" s="7">
@@ -19553,7 +19721,7 @@
       <c r="D684" s="6" t="s">
         <v>1372</v>
       </c>
-      <c r="E684" s="19">
+      <c r="E684" s="16">
         <v>7464</v>
       </c>
       <c r="F684" s="7">
@@ -19573,7 +19741,7 @@
       <c r="D685" s="6" t="s">
         <v>1374</v>
       </c>
-      <c r="E685" s="19">
+      <c r="E685" s="16">
         <v>7659</v>
       </c>
       <c r="F685" s="7">
@@ -19593,7 +19761,7 @@
       <c r="D686" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="E686" s="19">
+      <c r="E686" s="16">
         <v>7014</v>
       </c>
       <c r="F686" s="7">
@@ -19613,7 +19781,7 @@
       <c r="D687" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="E687" s="19">
+      <c r="E687" s="16">
         <v>7368</v>
       </c>
       <c r="F687" s="7">
@@ -19633,7 +19801,7 @@
       <c r="D688" s="6" t="s">
         <v>1380</v>
       </c>
-      <c r="E688" s="19">
+      <c r="E688" s="16">
         <v>7455</v>
       </c>
       <c r="F688" s="7">
@@ -19653,7 +19821,7 @@
       <c r="D689" s="6" t="s">
         <v>1382</v>
       </c>
-      <c r="E689" s="19">
+      <c r="E689" s="16">
         <v>7651</v>
       </c>
       <c r="F689" s="7">
@@ -19673,7 +19841,7 @@
       <c r="D690" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="E690" s="19">
+      <c r="E690" s="16">
         <v>7367</v>
       </c>
       <c r="F690" s="7">
@@ -19693,7 +19861,7 @@
       <c r="D691" s="6" t="s">
         <v>1386</v>
       </c>
-      <c r="E691" s="19">
+      <c r="E691" s="16">
         <v>7516</v>
       </c>
       <c r="F691" s="7">
@@ -19713,7 +19881,7 @@
       <c r="D692" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="E692" s="19">
+      <c r="E692" s="16">
         <v>7518</v>
       </c>
       <c r="F692" s="7">
@@ -19733,7 +19901,7 @@
       <c r="D693" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="E693" s="19">
+      <c r="E693" s="16">
         <v>7706</v>
       </c>
       <c r="F693" s="6" t="s">
@@ -19753,7 +19921,7 @@
       <c r="D694" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="E694" s="19">
+      <c r="E694" s="16">
         <v>7422</v>
       </c>
       <c r="F694" s="7">
@@ -19773,7 +19941,7 @@
       <c r="D695" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="E695" s="19">
+      <c r="E695" s="16">
         <v>7442</v>
       </c>
       <c r="F695" s="7">
@@ -19793,7 +19961,7 @@
       <c r="D696" s="6" t="s">
         <v>1397</v>
       </c>
-      <c r="E696" s="19">
+      <c r="E696" s="16">
         <v>7440</v>
       </c>
       <c r="F696" s="7">
@@ -19813,7 +19981,7 @@
       <c r="D697" s="6" t="s">
         <v>1399</v>
       </c>
-      <c r="E697" s="19">
+      <c r="E697" s="16">
         <v>7614</v>
       </c>
       <c r="F697" s="7">
@@ -19833,7 +20001,7 @@
       <c r="D698" s="12" t="s">
         <v>1401</v>
       </c>
-      <c r="E698" s="21">
+      <c r="E698" s="18">
         <v>7712</v>
       </c>
       <c r="F698" s="12" t="s">
@@ -19853,7 +20021,7 @@
       <c r="D699" s="6" t="s">
         <v>1404</v>
       </c>
-      <c r="E699" s="19">
+      <c r="E699" s="16">
         <v>7530</v>
       </c>
       <c r="F699" s="7">
@@ -19873,7 +20041,7 @@
       <c r="D700" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="E700" s="19">
+      <c r="E700" s="16">
         <v>7684</v>
       </c>
       <c r="F700" s="7">
@@ -19893,7 +20061,7 @@
       <c r="D701" s="6" t="s">
         <v>1408</v>
       </c>
-      <c r="E701" s="19">
+      <c r="E701" s="16">
         <v>7468</v>
       </c>
       <c r="F701" s="7">
@@ -19913,7 +20081,7 @@
       <c r="D702" s="6" t="s">
         <v>1410</v>
       </c>
-      <c r="E702" s="19">
+      <c r="E702" s="16">
         <v>7445</v>
       </c>
       <c r="F702" s="7">
@@ -19933,7 +20101,7 @@
       <c r="D703" s="6" t="s">
         <v>1412</v>
       </c>
-      <c r="E703" s="19">
+      <c r="E703" s="16">
         <v>7653</v>
       </c>
       <c r="F703" s="7">
@@ -19953,7 +20121,7 @@
       <c r="D704" s="6" t="s">
         <v>1414</v>
       </c>
-      <c r="E704" s="19">
+      <c r="E704" s="16">
         <v>7631</v>
       </c>
       <c r="F704" s="7">
@@ -19973,7 +20141,7 @@
       <c r="D705" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="E705" s="19">
+      <c r="E705" s="16">
         <v>7428</v>
       </c>
       <c r="F705" s="7">
@@ -19993,7 +20161,7 @@
       <c r="D706" s="6" t="s">
         <v>1418</v>
       </c>
-      <c r="E706" s="19">
+      <c r="E706" s="16">
         <v>7704</v>
       </c>
       <c r="F706" s="6" t="s">
@@ -20013,7 +20181,7 @@
       <c r="D707" s="6" t="s">
         <v>1421</v>
       </c>
-      <c r="E707" s="19">
+      <c r="E707" s="16">
         <v>7640</v>
       </c>
       <c r="F707" s="7">
@@ -20033,7 +20201,7 @@
       <c r="D708" s="6" t="s">
         <v>1423</v>
       </c>
-      <c r="E708" s="19">
+      <c r="E708" s="16">
         <v>7623</v>
       </c>
       <c r="F708" s="7">
@@ -20053,7 +20221,7 @@
       <c r="D709" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="E709" s="19">
+      <c r="E709" s="16">
         <v>7710</v>
       </c>
       <c r="F709" s="6" t="s">
@@ -20073,7 +20241,7 @@
       <c r="D710" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="E710" s="19">
+      <c r="E710" s="16">
         <v>7484</v>
       </c>
       <c r="F710" s="7">
@@ -20093,7 +20261,7 @@
       <c r="D711" s="6" t="s">
         <v>1430</v>
       </c>
-      <c r="E711" s="19">
+      <c r="E711" s="16">
         <v>7677</v>
       </c>
       <c r="F711" s="7">
@@ -20113,7 +20281,7 @@
       <c r="D712" s="6" t="s">
         <v>1432</v>
       </c>
-      <c r="E712" s="19">
+      <c r="E712" s="16">
         <v>7678</v>
       </c>
       <c r="F712" s="7">
@@ -20133,7 +20301,7 @@
       <c r="D713" s="6" t="s">
         <v>1434</v>
       </c>
-      <c r="E713" s="19">
+      <c r="E713" s="16">
         <v>7392</v>
       </c>
       <c r="F713" s="7">
@@ -20153,7 +20321,7 @@
       <c r="D714" s="6" t="s">
         <v>1436</v>
       </c>
-      <c r="E714" s="19">
+      <c r="E714" s="16">
         <v>7628</v>
       </c>
       <c r="F714" s="7">
@@ -20173,7 +20341,7 @@
       <c r="D715" s="6" t="s">
         <v>1438</v>
       </c>
-      <c r="E715" s="19">
+      <c r="E715" s="16">
         <v>7711</v>
       </c>
       <c r="F715" s="6" t="s">
@@ -20193,7 +20361,7 @@
       <c r="D716" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="E716" s="19">
+      <c r="E716" s="16">
         <v>7682</v>
       </c>
       <c r="F716" s="7">
@@ -20213,7 +20381,7 @@
       <c r="D717" s="6" t="s">
         <v>1443</v>
       </c>
-      <c r="E717" s="19">
+      <c r="E717" s="16">
         <v>7633</v>
       </c>
       <c r="F717" s="7">
@@ -20233,7 +20401,7 @@
       <c r="D718" s="6" t="s">
         <v>1445</v>
       </c>
-      <c r="E718" s="19">
+      <c r="E718" s="16">
         <v>7626</v>
       </c>
       <c r="F718" s="7">
@@ -20253,7 +20421,7 @@
       <c r="D719" s="6" t="s">
         <v>1447</v>
       </c>
-      <c r="E719" s="19">
+      <c r="E719" s="16">
         <v>7696</v>
       </c>
       <c r="F719" s="6" t="s">
@@ -20273,7 +20441,7 @@
       <c r="D720" s="6" t="s">
         <v>1450</v>
       </c>
-      <c r="E720" s="19">
+      <c r="E720" s="16">
         <v>7424</v>
       </c>
       <c r="F720" s="7">
@@ -20293,7 +20461,7 @@
       <c r="D721" s="6" t="s">
         <v>1452</v>
       </c>
-      <c r="E721" s="19">
+      <c r="E721" s="16">
         <v>7701</v>
       </c>
       <c r="F721" s="6" t="s">
@@ -20313,7 +20481,7 @@
       <c r="D722" s="6" t="s">
         <v>1455</v>
       </c>
-      <c r="E722" s="19">
+      <c r="E722" s="16">
         <v>7438</v>
       </c>
       <c r="F722" s="7">
@@ -20333,7 +20501,7 @@
       <c r="D723" s="6" t="s">
         <v>1457</v>
       </c>
-      <c r="E723" s="19">
+      <c r="E723" s="16">
         <v>7607</v>
       </c>
       <c r="F723" s="7">
@@ -20353,7 +20521,7 @@
       <c r="D724" s="6" t="s">
         <v>1459</v>
       </c>
-      <c r="E724" s="19">
+      <c r="E724" s="16">
         <v>7389</v>
       </c>
       <c r="F724" s="7">
@@ -20373,7 +20541,7 @@
       <c r="D725" s="6" t="s">
         <v>1461</v>
       </c>
-      <c r="E725" s="19">
+      <c r="E725" s="16">
         <v>7353</v>
       </c>
       <c r="F725" s="7">
@@ -20393,7 +20561,7 @@
       <c r="D726" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="E726" s="19">
+      <c r="E726" s="16">
         <v>7351</v>
       </c>
       <c r="F726" s="7">
@@ -20413,7 +20581,7 @@
       <c r="D727" s="6" t="s">
         <v>1465</v>
       </c>
-      <c r="E727" s="19">
+      <c r="E727" s="16">
         <v>7408</v>
       </c>
       <c r="F727" s="7">
@@ -20433,7 +20601,7 @@
       <c r="D728" s="5" t="s">
         <v>1467</v>
       </c>
-      <c r="E728" s="19">
+      <c r="E728" s="16">
         <v>7573</v>
       </c>
       <c r="F728" s="7">
@@ -20453,7 +20621,7 @@
       <c r="D729" s="6" t="s">
         <v>1469</v>
       </c>
-      <c r="E729" s="19">
+      <c r="E729" s="16">
         <v>7490</v>
       </c>
       <c r="F729" s="7">
@@ -20473,7 +20641,7 @@
       <c r="D730" s="6" t="s">
         <v>1471</v>
       </c>
-      <c r="E730" s="19">
+      <c r="E730" s="16">
         <v>7498</v>
       </c>
       <c r="F730" s="7">
@@ -20493,7 +20661,7 @@
       <c r="D731" s="6" t="s">
         <v>1473</v>
       </c>
-      <c r="E731" s="19">
+      <c r="E731" s="16">
         <v>7505</v>
       </c>
       <c r="F731" s="7">
@@ -20513,7 +20681,7 @@
       <c r="D732" s="6" t="s">
         <v>1475</v>
       </c>
-      <c r="E732" s="19">
+      <c r="E732" s="16">
         <v>7662</v>
       </c>
       <c r="F732" s="7">
@@ -20533,7 +20701,7 @@
       <c r="D733" s="6" t="s">
         <v>1477</v>
       </c>
-      <c r="E733" s="19">
+      <c r="E733" s="16">
         <v>7343</v>
       </c>
       <c r="F733" s="7">
@@ -20553,7 +20721,7 @@
       <c r="D734" s="6" t="s">
         <v>1479</v>
       </c>
-      <c r="E734" s="19">
+      <c r="E734" s="16">
         <v>7426</v>
       </c>
       <c r="F734" s="7">
@@ -20573,7 +20741,7 @@
       <c r="D735" s="6" t="s">
         <v>1481</v>
       </c>
-      <c r="E735" s="19">
+      <c r="E735" s="16">
         <v>7365</v>
       </c>
       <c r="F735" s="7">
@@ -20593,7 +20761,7 @@
       <c r="D736" s="6" t="s">
         <v>1483</v>
       </c>
-      <c r="E736" s="19">
+      <c r="E736" s="16">
         <v>7166</v>
       </c>
       <c r="F736" s="7">
@@ -20613,7 +20781,7 @@
       <c r="D737" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="E737" s="19">
+      <c r="E737" s="16">
         <v>7637</v>
       </c>
       <c r="F737" s="7">
@@ -20633,7 +20801,7 @@
       <c r="D738" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="E738" s="19">
+      <c r="E738" s="16">
         <v>7362</v>
       </c>
       <c r="F738" s="7">
@@ -20653,7 +20821,7 @@
       <c r="D739" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="E739" s="19">
+      <c r="E739" s="16">
         <v>7348</v>
       </c>
       <c r="F739" s="7">
@@ -20673,7 +20841,7 @@
       <c r="D740" s="6" t="s">
         <v>1491</v>
       </c>
-      <c r="E740" s="19">
+      <c r="E740" s="16">
         <v>7432</v>
       </c>
       <c r="F740" s="7">
@@ -20693,7 +20861,7 @@
       <c r="D741" s="6" t="s">
         <v>1493</v>
       </c>
-      <c r="E741" s="19">
+      <c r="E741" s="16">
         <v>7123</v>
       </c>
       <c r="F741" s="7">
@@ -20713,7 +20881,7 @@
       <c r="D742" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="E742" s="19">
+      <c r="E742" s="16">
         <v>7115</v>
       </c>
       <c r="F742" s="7">
@@ -20733,7 +20901,7 @@
       <c r="D743" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="E743" s="19">
+      <c r="E743" s="16">
         <v>7167</v>
       </c>
       <c r="F743" s="7">
@@ -20753,7 +20921,7 @@
       <c r="D744" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="E744" s="19">
+      <c r="E744" s="16">
         <v>7377</v>
       </c>
       <c r="F744" s="7">
@@ -20773,7 +20941,7 @@
       <c r="D745" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="E745" s="19">
+      <c r="E745" s="16">
         <v>7420</v>
       </c>
       <c r="F745" s="7">
@@ -20793,7 +20961,7 @@
       <c r="D746" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="E746" s="19">
+      <c r="E746" s="16">
         <v>7076</v>
       </c>
       <c r="F746" s="7">
@@ -20813,7 +20981,7 @@
       <c r="D747" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="E747" s="19">
+      <c r="E747" s="16">
         <v>7621</v>
       </c>
       <c r="F747" s="7">
@@ -20833,7 +21001,7 @@
       <c r="D748" s="6" t="s">
         <v>1507</v>
       </c>
-      <c r="E748" s="19">
+      <c r="E748" s="16">
         <v>7019</v>
       </c>
       <c r="F748" s="7">
@@ -20853,7 +21021,7 @@
       <c r="D749" s="6" t="s">
         <v>1509</v>
       </c>
-      <c r="E749" s="19">
+      <c r="E749" s="16">
         <v>6989</v>
       </c>
       <c r="F749" s="7">
@@ -20873,7 +21041,7 @@
       <c r="D750" s="6" t="s">
         <v>1511</v>
       </c>
-      <c r="E750" s="19">
+      <c r="E750" s="16">
         <v>7170</v>
       </c>
       <c r="F750" s="7">
@@ -20893,7 +21061,7 @@
       <c r="D751" s="6" t="s">
         <v>1513</v>
       </c>
-      <c r="E751" s="19">
+      <c r="E751" s="16">
         <v>7470</v>
       </c>
       <c r="F751" s="7">
@@ -20913,7 +21081,7 @@
       <c r="D752" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="E752" s="19">
+      <c r="E752" s="16">
         <v>7466</v>
       </c>
       <c r="F752" s="7">
@@ -20933,7 +21101,7 @@
       <c r="D753" s="6" t="s">
         <v>1517</v>
       </c>
-      <c r="E753" s="19">
+      <c r="E753" s="16">
         <v>7485</v>
       </c>
       <c r="F753" s="7">
@@ -20953,7 +21121,7 @@
       <c r="D754" s="6" t="s">
         <v>1519</v>
       </c>
-      <c r="E754" s="19">
+      <c r="E754" s="16">
         <v>7308</v>
       </c>
       <c r="F754" s="7">
@@ -20973,7 +21141,7 @@
       <c r="D755" s="6" t="s">
         <v>1521</v>
       </c>
-      <c r="E755" s="19">
+      <c r="E755" s="16">
         <v>7325</v>
       </c>
       <c r="F755" s="7">
@@ -20993,7 +21161,7 @@
       <c r="D756" s="6" t="s">
         <v>1523</v>
       </c>
-      <c r="E756" s="19">
+      <c r="E756" s="16">
         <v>7341</v>
       </c>
       <c r="F756" s="7">
@@ -21013,7 +21181,7 @@
       <c r="D757" s="6" t="s">
         <v>1525</v>
       </c>
-      <c r="E757" s="19">
+      <c r="E757" s="16">
         <v>6975</v>
       </c>
       <c r="F757" s="7">
@@ -21033,7 +21201,7 @@
       <c r="D758" s="6" t="s">
         <v>1527</v>
       </c>
-      <c r="E758" s="19">
+      <c r="E758" s="16">
         <v>7397</v>
       </c>
       <c r="F758" s="7">
@@ -21053,7 +21221,7 @@
       <c r="D759" s="6" t="s">
         <v>1529</v>
       </c>
-      <c r="E759" s="19">
+      <c r="E759" s="16">
         <v>7481</v>
       </c>
       <c r="F759" s="7">
@@ -21073,7 +21241,7 @@
       <c r="D760" s="6" t="s">
         <v>1531</v>
       </c>
-      <c r="E760" s="19">
+      <c r="E760" s="16">
         <v>7565</v>
       </c>
       <c r="F760" s="7">
@@ -21093,7 +21261,7 @@
       <c r="D761" s="6" t="s">
         <v>1533</v>
       </c>
-      <c r="E761" s="19">
+      <c r="E761" s="16">
         <v>7086</v>
       </c>
       <c r="F761" s="7">
@@ -21113,7 +21281,7 @@
       <c r="D762" s="6" t="s">
         <v>1535</v>
       </c>
-      <c r="E762" s="19">
+      <c r="E762" s="16">
         <v>6994</v>
       </c>
       <c r="F762" s="7">
@@ -21133,7 +21301,7 @@
       <c r="D763" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="E763" s="19">
+      <c r="E763" s="16">
         <v>7031</v>
       </c>
       <c r="F763" s="7">
@@ -21153,7 +21321,7 @@
       <c r="D764" s="6" t="s">
         <v>1539</v>
       </c>
-      <c r="E764" s="19">
+      <c r="E764" s="16">
         <v>7187</v>
       </c>
       <c r="F764" s="7">
@@ -21173,7 +21341,7 @@
       <c r="D765" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="E765" s="19">
+      <c r="E765" s="16">
         <v>7407</v>
       </c>
       <c r="F765" s="7">
@@ -21193,7 +21361,7 @@
       <c r="D766" s="6" t="s">
         <v>1543</v>
       </c>
-      <c r="E766" s="19">
+      <c r="E766" s="16">
         <v>7417</v>
       </c>
       <c r="F766" s="7">
@@ -21213,7 +21381,7 @@
       <c r="D767" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="E767" s="19">
+      <c r="E767" s="16">
         <v>7307</v>
       </c>
       <c r="F767" s="7">
@@ -21233,7 +21401,7 @@
       <c r="D768" s="6" t="s">
         <v>1547</v>
       </c>
-      <c r="E768" s="19">
+      <c r="E768" s="16">
         <v>7581</v>
       </c>
       <c r="F768" s="7">
@@ -21253,7 +21421,7 @@
       <c r="D769" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="E769" s="19">
+      <c r="E769" s="16">
         <v>7452</v>
       </c>
       <c r="F769" s="7">
@@ -21273,7 +21441,7 @@
       <c r="D770" s="6" t="s">
         <v>1551</v>
       </c>
-      <c r="E770" s="19">
+      <c r="E770" s="16">
         <v>6999</v>
       </c>
       <c r="F770" s="7">
@@ -21293,7 +21461,7 @@
       <c r="D771" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="E771" s="19">
+      <c r="E771" s="16">
         <v>7610</v>
       </c>
       <c r="F771" s="7">
@@ -21313,7 +21481,7 @@
       <c r="D772" s="6" t="s">
         <v>1555</v>
       </c>
-      <c r="E772" s="19">
+      <c r="E772" s="16">
         <v>7038</v>
       </c>
       <c r="F772" s="7">
@@ -21333,7 +21501,7 @@
       <c r="D773" s="6" t="s">
         <v>1557</v>
       </c>
-      <c r="E773" s="19">
+      <c r="E773" s="16">
         <v>7326</v>
       </c>
       <c r="F773" s="7">
@@ -21353,7 +21521,7 @@
       <c r="D774" s="6" t="s">
         <v>1559</v>
       </c>
-      <c r="E774" s="19">
+      <c r="E774" s="16">
         <v>7612</v>
       </c>
       <c r="F774" s="7">
@@ -21373,7 +21541,7 @@
       <c r="D775" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="E775" s="19">
+      <c r="E775" s="16">
         <v>7306</v>
       </c>
       <c r="F775" s="7">
@@ -21393,7 +21561,7 @@
       <c r="D776" s="6" t="s">
         <v>1563</v>
       </c>
-      <c r="E776" s="19">
+      <c r="E776" s="16">
         <v>7335</v>
       </c>
       <c r="F776" s="7">
@@ -21413,7 +21581,7 @@
       <c r="D777" s="6" t="s">
         <v>1565</v>
       </c>
-      <c r="E777" s="19">
+      <c r="E777" s="16">
         <v>7342</v>
       </c>
       <c r="F777" s="7">
@@ -21433,7 +21601,7 @@
       <c r="D778" s="6" t="s">
         <v>1567</v>
       </c>
-      <c r="E778" s="19" t="s">
+      <c r="E778" s="16" t="s">
         <v>1568</v>
       </c>
       <c r="F778" s="7">
@@ -21453,7 +21621,7 @@
       <c r="D779" s="6" t="s">
         <v>1570</v>
       </c>
-      <c r="E779" s="19">
+      <c r="E779" s="16">
         <v>6962</v>
       </c>
       <c r="F779" s="7">
@@ -21473,7 +21641,7 @@
       <c r="D780" s="6" t="s">
         <v>1572</v>
       </c>
-      <c r="E780" s="19">
+      <c r="E780" s="16">
         <v>7017</v>
       </c>
       <c r="F780" s="7">
@@ -21493,7 +21661,7 @@
       <c r="D781" s="6" t="s">
         <v>1574</v>
       </c>
-      <c r="E781" s="19">
+      <c r="E781" s="16">
         <v>7380</v>
       </c>
       <c r="F781" s="7">
@@ -21513,7 +21681,7 @@
       <c r="D782" s="6" t="s">
         <v>1576</v>
       </c>
-      <c r="E782" s="19">
+      <c r="E782" s="16">
         <v>7398</v>
       </c>
       <c r="F782" s="7">
@@ -21533,7 +21701,7 @@
       <c r="D783" s="6" t="s">
         <v>1578</v>
       </c>
-      <c r="E783" s="19">
+      <c r="E783" s="16">
         <v>7539</v>
       </c>
       <c r="F783" s="7">
@@ -21553,7 +21721,7 @@
       <c r="D784" s="6" t="s">
         <v>1580</v>
       </c>
-      <c r="E784" s="19">
+      <c r="E784" s="16">
         <v>7409</v>
       </c>
       <c r="F784" s="7">
@@ -21573,7 +21741,7 @@
       <c r="D785" s="6" t="s">
         <v>1582</v>
       </c>
-      <c r="E785" s="19">
+      <c r="E785" s="16">
         <v>7350</v>
       </c>
       <c r="F785" s="7">
@@ -21593,7 +21761,7 @@
       <c r="D786" s="6" t="s">
         <v>1584</v>
       </c>
-      <c r="E786" s="19">
+      <c r="E786" s="16">
         <v>7472</v>
       </c>
       <c r="F786" s="7">
@@ -21613,7 +21781,7 @@
       <c r="D787" s="6" t="s">
         <v>1586</v>
       </c>
-      <c r="E787" s="19">
+      <c r="E787" s="16">
         <v>7641</v>
       </c>
       <c r="F787" s="7">
@@ -21633,7 +21801,7 @@
       <c r="D788" s="6" t="s">
         <v>1588</v>
       </c>
-      <c r="E788" s="19">
+      <c r="E788" s="16">
         <v>7419</v>
       </c>
       <c r="F788" s="7">
@@ -21653,7 +21821,7 @@
       <c r="D789" s="6" t="s">
         <v>1590</v>
       </c>
-      <c r="E789" s="19">
+      <c r="E789" s="16">
         <v>6967</v>
       </c>
       <c r="F789" s="7">
@@ -21673,7 +21841,7 @@
       <c r="D790" s="6" t="s">
         <v>1592</v>
       </c>
-      <c r="E790" s="19">
+      <c r="E790" s="16">
         <v>7644</v>
       </c>
       <c r="F790" s="7">
@@ -21693,7 +21861,7 @@
       <c r="D791" s="6" t="s">
         <v>1594</v>
       </c>
-      <c r="E791" s="19">
+      <c r="E791" s="16">
         <v>6950</v>
       </c>
       <c r="F791" s="7">
@@ -21713,7 +21881,7 @@
       <c r="D792" s="6" t="s">
         <v>1596</v>
       </c>
-      <c r="E792" s="19">
+      <c r="E792" s="16">
         <v>7027</v>
       </c>
       <c r="F792" s="7">
@@ -21733,7 +21901,7 @@
       <c r="D793" s="6" t="s">
         <v>1598</v>
       </c>
-      <c r="E793" s="19">
+      <c r="E793" s="16">
         <v>7622</v>
       </c>
       <c r="F793" s="7">
@@ -21753,7 +21921,7 @@
       <c r="D794" s="6" t="s">
         <v>1600</v>
       </c>
-      <c r="E794" s="19">
+      <c r="E794" s="16">
         <v>7569</v>
       </c>
       <c r="F794" s="7">
@@ -21773,7 +21941,7 @@
       <c r="D795" s="6" t="s">
         <v>1602</v>
       </c>
-      <c r="E795" s="19">
+      <c r="E795" s="16">
         <v>7456</v>
       </c>
       <c r="F795" s="7">
@@ -21793,7 +21961,7 @@
       <c r="D796" s="6" t="s">
         <v>1604</v>
       </c>
-      <c r="E796" s="19">
+      <c r="E796" s="16">
         <v>7694</v>
       </c>
       <c r="F796" s="7">
@@ -21813,7 +21981,7 @@
       <c r="D797" s="6" t="s">
         <v>1606</v>
       </c>
-      <c r="E797" s="19">
+      <c r="E797" s="16">
         <v>7037</v>
       </c>
       <c r="F797" s="7">
@@ -21833,7 +22001,7 @@
       <c r="D798" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="E798" s="19">
+      <c r="E798" s="16">
         <v>7666</v>
       </c>
       <c r="F798" s="7">
@@ -21853,7 +22021,7 @@
       <c r="D799" s="6" t="s">
         <v>1610</v>
       </c>
-      <c r="E799" s="19">
+      <c r="E799" s="16">
         <v>7665</v>
       </c>
       <c r="F799" s="7">
@@ -21873,7 +22041,7 @@
       <c r="D800" s="6" t="s">
         <v>1612</v>
       </c>
-      <c r="E800" s="19">
+      <c r="E800" s="16">
         <v>7457</v>
       </c>
       <c r="F800" s="7">
@@ -21893,7 +22061,7 @@
       <c r="D801" s="6" t="s">
         <v>1614</v>
       </c>
-      <c r="E801" s="19">
+      <c r="E801" s="16">
         <v>7444</v>
       </c>
       <c r="F801" s="7">
@@ -21913,7 +22081,7 @@
       <c r="D802" s="6" t="s">
         <v>1616</v>
       </c>
-      <c r="E802" s="19">
+      <c r="E802" s="16">
         <v>7602</v>
       </c>
       <c r="F802" s="7">
@@ -21933,7 +22101,7 @@
       <c r="D803" s="6" t="s">
         <v>1618</v>
       </c>
-      <c r="E803" s="19">
+      <c r="E803" s="16">
         <v>7068</v>
       </c>
       <c r="F803" s="7">
@@ -21953,7 +22121,7 @@
       <c r="D804" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="E804" s="19">
+      <c r="E804" s="16">
         <v>7163</v>
       </c>
       <c r="F804" s="7">
@@ -21973,7 +22141,7 @@
       <c r="D805" s="6" t="s">
         <v>1622</v>
       </c>
-      <c r="E805" s="19">
+      <c r="E805" s="16">
         <v>6951</v>
       </c>
       <c r="F805" s="7">
@@ -21993,7 +22161,7 @@
       <c r="D806" s="6" t="s">
         <v>1624</v>
       </c>
-      <c r="E806" s="19">
+      <c r="E806" s="16">
         <v>7381</v>
       </c>
       <c r="F806" s="7">
@@ -22013,7 +22181,7 @@
       <c r="D807" s="6" t="s">
         <v>1626</v>
       </c>
-      <c r="E807" s="19">
+      <c r="E807" s="16">
         <v>7493</v>
       </c>
       <c r="F807" s="7">
@@ -22027,16 +22195,16 @@
       <c r="B808" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C808" s="16" t="s">
+      <c r="C808" s="14" t="s">
         <v>1627</v>
       </c>
-      <c r="D808" s="16" t="s">
+      <c r="D808" s="14" t="s">
         <v>1628</v>
       </c>
-      <c r="E808" s="20">
+      <c r="E808" s="17">
         <v>7673</v>
       </c>
-      <c r="F808" s="17">
+      <c r="F808" s="15">
         <v>43564</v>
       </c>
     </row>
@@ -22053,7 +22221,7 @@
       <c r="D809" s="6" t="s">
         <v>1630</v>
       </c>
-      <c r="E809" s="19">
+      <c r="E809" s="16">
         <v>7690</v>
       </c>
       <c r="F809" s="7">
@@ -22073,7 +22241,7 @@
       <c r="D810" s="6" t="s">
         <v>1632</v>
       </c>
-      <c r="E810" s="19">
+      <c r="E810" s="16">
         <v>7646</v>
       </c>
       <c r="F810" s="7">
@@ -22093,7 +22261,7 @@
       <c r="D811" s="6" t="s">
         <v>1634</v>
       </c>
-      <c r="E811" s="19">
+      <c r="E811" s="16">
         <v>7687</v>
       </c>
       <c r="F811" s="7">
@@ -22113,7 +22281,7 @@
       <c r="D812" s="6" t="s">
         <v>1636</v>
       </c>
-      <c r="E812" s="19">
+      <c r="E812" s="16">
         <v>6913</v>
       </c>
       <c r="F812" s="7">
@@ -22133,7 +22301,7 @@
       <c r="D813" s="6" t="s">
         <v>1638</v>
       </c>
-      <c r="E813" s="19">
+      <c r="E813" s="16">
         <v>5650</v>
       </c>
       <c r="F813" s="7">
@@ -22153,7 +22321,7 @@
       <c r="D814" s="6" t="s">
         <v>1640</v>
       </c>
-      <c r="E814" s="19">
+      <c r="E814" s="16">
         <v>7048</v>
       </c>
       <c r="F814" s="7">
@@ -22173,7 +22341,7 @@
       <c r="D815" s="6" t="s">
         <v>1642</v>
       </c>
-      <c r="E815" s="19">
+      <c r="E815" s="16">
         <v>6430</v>
       </c>
       <c r="F815" s="7">
@@ -22193,7 +22361,7 @@
       <c r="D816" s="6" t="s">
         <v>1644</v>
       </c>
-      <c r="E816" s="19">
+      <c r="E816" s="16">
         <v>7024</v>
       </c>
       <c r="F816" s="7">
@@ -22213,7 +22381,7 @@
       <c r="D817" s="6" t="s">
         <v>1646</v>
       </c>
-      <c r="E817" s="19">
+      <c r="E817" s="16">
         <v>6690</v>
       </c>
       <c r="F817" s="7">
@@ -22233,7 +22401,7 @@
       <c r="D818" s="6" t="s">
         <v>1648</v>
       </c>
-      <c r="E818" s="19">
+      <c r="E818" s="16">
         <v>6350</v>
       </c>
       <c r="F818" s="7">
@@ -22253,7 +22421,7 @@
       <c r="D819" s="6" t="s">
         <v>1650</v>
       </c>
-      <c r="E819" s="19">
+      <c r="E819" s="16">
         <v>5850</v>
       </c>
       <c r="F819" s="7">
@@ -22273,7 +22441,7 @@
       <c r="D820" s="6" t="s">
         <v>1652</v>
       </c>
-      <c r="E820" s="19">
+      <c r="E820" s="16">
         <v>6904</v>
       </c>
       <c r="F820" s="7">
@@ -22293,7 +22461,7 @@
       <c r="D821" s="6" t="s">
         <v>1654</v>
       </c>
-      <c r="E821" s="19">
+      <c r="E821" s="16">
         <v>6974</v>
       </c>
       <c r="F821" s="7">
@@ -22313,7 +22481,7 @@
       <c r="D822" s="6" t="s">
         <v>1656</v>
       </c>
-      <c r="E822" s="19">
+      <c r="E822" s="16">
         <v>7107</v>
       </c>
       <c r="F822" s="7">
@@ -22333,7 +22501,7 @@
       <c r="D823" s="6" t="s">
         <v>1658</v>
       </c>
-      <c r="E823" s="19">
+      <c r="E823" s="16">
         <v>6877</v>
       </c>
       <c r="F823" s="7">
@@ -22353,7 +22521,7 @@
       <c r="D824" s="6" t="s">
         <v>1660</v>
       </c>
-      <c r="E824" s="19">
+      <c r="E824" s="16">
         <v>6863</v>
       </c>
       <c r="F824" s="7">
@@ -22373,7 +22541,7 @@
       <c r="D825" s="6" t="s">
         <v>1662</v>
       </c>
-      <c r="E825" s="19">
+      <c r="E825" s="16">
         <v>3846</v>
       </c>
       <c r="F825" s="7">
@@ -22393,7 +22561,7 @@
       <c r="D826" s="6" t="s">
         <v>1664</v>
       </c>
-      <c r="E826" s="19">
+      <c r="E826" s="16">
         <v>6520</v>
       </c>
       <c r="F826" s="7">
@@ -22413,7 +22581,7 @@
       <c r="D827" s="6" t="s">
         <v>1666</v>
       </c>
-      <c r="E827" s="19">
+      <c r="E827" s="16">
         <v>6942</v>
       </c>
       <c r="F827" s="7">
@@ -22433,7 +22601,7 @@
       <c r="D828" s="6" t="s">
         <v>1668</v>
       </c>
-      <c r="E828" s="19">
+      <c r="E828" s="16">
         <v>7413</v>
       </c>
       <c r="F828" s="7">
@@ -22453,7 +22621,7 @@
       <c r="D829" s="6" t="s">
         <v>1670</v>
       </c>
-      <c r="E829" s="19">
+      <c r="E829" s="16">
         <v>6945</v>
       </c>
       <c r="F829" s="7">
@@ -22473,7 +22641,7 @@
       <c r="D830" s="6" t="s">
         <v>1672</v>
       </c>
-      <c r="E830" s="19">
+      <c r="E830" s="16">
         <v>7304</v>
       </c>
       <c r="F830" s="7">
@@ -22493,7 +22661,7 @@
       <c r="D831" s="6" t="s">
         <v>1674</v>
       </c>
-      <c r="E831" s="19">
+      <c r="E831" s="16">
         <v>6946</v>
       </c>
       <c r="F831" s="7">
@@ -22513,7 +22681,7 @@
       <c r="D832" s="6" t="s">
         <v>1676</v>
       </c>
-      <c r="E832" s="19">
+      <c r="E832" s="16">
         <v>6790</v>
       </c>
       <c r="F832" s="7">
@@ -22533,7 +22701,7 @@
       <c r="D833" s="6" t="s">
         <v>1678</v>
       </c>
-      <c r="E833" s="19">
+      <c r="E833" s="16">
         <v>6941</v>
       </c>
       <c r="F833" s="7">
@@ -22553,7 +22721,7 @@
       <c r="D834" s="6" t="s">
         <v>1680</v>
       </c>
-      <c r="E834" s="19">
+      <c r="E834" s="16">
         <v>6901</v>
       </c>
       <c r="F834" s="7">
@@ -22573,7 +22741,7 @@
       <c r="D835" s="6" t="s">
         <v>1682</v>
       </c>
-      <c r="E835" s="19">
+      <c r="E835" s="16">
         <v>6800</v>
       </c>
       <c r="F835" s="7">
@@ -22593,7 +22761,7 @@
       <c r="D836" s="6" t="s">
         <v>1684</v>
       </c>
-      <c r="E836" s="19">
+      <c r="E836" s="16">
         <v>6940</v>
       </c>
       <c r="F836" s="7">
@@ -22613,7 +22781,7 @@
       <c r="D837" s="6" t="s">
         <v>1686</v>
       </c>
-      <c r="E837" s="19">
+      <c r="E837" s="16">
         <v>6550</v>
       </c>
       <c r="F837" s="7">
@@ -22633,7 +22801,7 @@
       <c r="D838" s="6" t="s">
         <v>1688</v>
       </c>
-      <c r="E838" s="19">
+      <c r="E838" s="16">
         <v>7023</v>
       </c>
       <c r="F838" s="7">
@@ -22653,7 +22821,7 @@
       <c r="D839" s="6" t="s">
         <v>1690</v>
       </c>
-      <c r="E839" s="19">
+      <c r="E839" s="16">
         <v>6650</v>
       </c>
       <c r="F839" s="7">
@@ -22673,7 +22841,7 @@
       <c r="D840" s="6" t="s">
         <v>1692</v>
       </c>
-      <c r="E840" s="19">
+      <c r="E840" s="16">
         <v>6879</v>
       </c>
       <c r="F840" s="7">
@@ -22693,7 +22861,7 @@
       <c r="D841" s="6" t="s">
         <v>1694</v>
       </c>
-      <c r="E841" s="19">
+      <c r="E841" s="16">
         <v>3848</v>
       </c>
       <c r="F841" s="7">
@@ -22713,7 +22881,7 @@
       <c r="D842" s="6" t="s">
         <v>1696</v>
       </c>
-      <c r="E842" s="19">
+      <c r="E842" s="16">
         <v>6923</v>
       </c>
       <c r="F842" s="7">
@@ -22733,7 +22901,7 @@
       <c r="D843" s="6" t="s">
         <v>1698</v>
       </c>
-      <c r="E843" s="19">
+      <c r="E843" s="16">
         <v>7008</v>
       </c>
       <c r="F843" s="7">
@@ -22753,7 +22921,7 @@
       <c r="D844" s="6" t="s">
         <v>1700</v>
       </c>
-      <c r="E844" s="19">
+      <c r="E844" s="16">
         <v>6840</v>
       </c>
       <c r="F844" s="7">
@@ -22773,7 +22941,7 @@
       <c r="D845" s="6" t="s">
         <v>1702</v>
       </c>
-      <c r="E845" s="19">
+      <c r="E845" s="16">
         <v>5900</v>
       </c>
       <c r="F845" s="7">
@@ -22793,7 +22961,7 @@
       <c r="D846" s="6" t="s">
         <v>1704</v>
       </c>
-      <c r="E846" s="19">
+      <c r="E846" s="16">
         <v>7359</v>
       </c>
       <c r="F846" s="7">
@@ -22813,7 +22981,7 @@
       <c r="D847" s="6" t="s">
         <v>1706</v>
       </c>
-      <c r="E847" s="19">
+      <c r="E847" s="16">
         <v>7145</v>
       </c>
       <c r="F847" s="7">
@@ -22833,7 +23001,7 @@
       <c r="D848" s="6" t="s">
         <v>1708</v>
       </c>
-      <c r="E848" s="19">
+      <c r="E848" s="16">
         <v>7188</v>
       </c>
       <c r="F848" s="7">
@@ -22853,7 +23021,7 @@
       <c r="D849" s="6" t="s">
         <v>1710</v>
       </c>
-      <c r="E849" s="19">
+      <c r="E849" s="16">
         <v>6100</v>
       </c>
       <c r="F849" s="7">
@@ -22873,7 +23041,7 @@
       <c r="D850" s="6" t="s">
         <v>1712</v>
       </c>
-      <c r="E850" s="19">
+      <c r="E850" s="16">
         <v>6150</v>
       </c>
       <c r="F850" s="7">
@@ -22893,7 +23061,7 @@
       <c r="D851" s="6" t="s">
         <v>1714</v>
       </c>
-      <c r="E851" s="19">
+      <c r="E851" s="16">
         <v>6969</v>
       </c>
       <c r="F851" s="7">
@@ -22913,7 +23081,7 @@
       <c r="D852" s="6" t="s">
         <v>1716</v>
       </c>
-      <c r="E852" s="19">
+      <c r="E852" s="16">
         <v>7108</v>
       </c>
       <c r="F852" s="7">
@@ -22933,7 +23101,7 @@
       <c r="D853" s="6" t="s">
         <v>1718</v>
       </c>
-      <c r="E853" s="19">
+      <c r="E853" s="16">
         <v>6250</v>
       </c>
       <c r="F853" s="7">
@@ -22953,7 +23121,7 @@
       <c r="D854" s="6" t="s">
         <v>1720</v>
       </c>
-      <c r="E854" s="19">
+      <c r="E854" s="16">
         <v>6300</v>
       </c>
       <c r="F854" s="7">
@@ -22973,7 +23141,7 @@
       <c r="D855" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="E855" s="19">
+      <c r="E855" s="16">
         <v>7334</v>
       </c>
       <c r="F855" s="7">
@@ -22993,7 +23161,7 @@
       <c r="D856" s="6" t="s">
         <v>1724</v>
       </c>
-      <c r="E856" s="19">
+      <c r="E856" s="16">
         <v>7214</v>
       </c>
       <c r="F856" s="7">
@@ -23013,7 +23181,7 @@
       <c r="D857" s="6" t="s">
         <v>1726</v>
       </c>
-      <c r="E857" s="19">
+      <c r="E857" s="16">
         <v>7210</v>
       </c>
       <c r="F857" s="7">
@@ -23033,7 +23201,7 @@
       <c r="D858" s="6" t="s">
         <v>1728</v>
       </c>
-      <c r="E858" s="19">
+      <c r="E858" s="16">
         <v>7385</v>
       </c>
       <c r="F858" s="7">
@@ -23053,7 +23221,7 @@
       <c r="D859" s="6" t="s">
         <v>1730</v>
       </c>
-      <c r="E859" s="19">
+      <c r="E859" s="16">
         <v>7336</v>
       </c>
       <c r="F859" s="7">
@@ -23073,7 +23241,7 @@
       <c r="D860" s="6" t="s">
         <v>1732</v>
       </c>
-      <c r="E860" s="19">
+      <c r="E860" s="16">
         <v>7319</v>
       </c>
       <c r="F860" s="7">
@@ -23093,7 +23261,7 @@
       <c r="D861" s="6" t="s">
         <v>1734</v>
       </c>
-      <c r="E861" s="19">
+      <c r="E861" s="16">
         <v>6890</v>
       </c>
       <c r="F861" s="7">
@@ -23113,7 +23281,7 @@
       <c r="D862" s="6" t="s">
         <v>1736</v>
       </c>
-      <c r="E862" s="19">
+      <c r="E862" s="16">
         <v>7391</v>
       </c>
       <c r="F862" s="7">
@@ -23133,7 +23301,7 @@
       <c r="D863" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="E863" s="19">
+      <c r="E863" s="16">
         <v>7318</v>
       </c>
       <c r="F863" s="7">
@@ -23153,7 +23321,7 @@
       <c r="D864" s="6" t="s">
         <v>1740</v>
       </c>
-      <c r="E864" s="19">
+      <c r="E864" s="16">
         <v>7100</v>
       </c>
       <c r="F864" s="7">
@@ -23173,7 +23341,7 @@
       <c r="D865" s="6" t="s">
         <v>1742</v>
       </c>
-      <c r="E865" s="19">
+      <c r="E865" s="16">
         <v>7383</v>
       </c>
       <c r="F865" s="7">
@@ -23193,7 +23361,7 @@
       <c r="D866" s="6" t="s">
         <v>1744</v>
       </c>
-      <c r="E866" s="19">
+      <c r="E866" s="16">
         <v>7382</v>
       </c>
       <c r="F866" s="7">
@@ -23213,7 +23381,7 @@
       <c r="D867" s="6" t="s">
         <v>1746</v>
       </c>
-      <c r="E867" s="19">
+      <c r="E867" s="16">
         <v>7134</v>
       </c>
       <c r="F867" s="7">
@@ -23233,7 +23401,7 @@
       <c r="D868" s="6" t="s">
         <v>1748</v>
       </c>
-      <c r="E868" s="19">
+      <c r="E868" s="16">
         <v>7414</v>
       </c>
       <c r="F868" s="7">
@@ -23245,13 +23413,15 @@
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
       <c r="D869" s="3"/>
-      <c r="E869" s="22"/>
+      <c r="E869" s="19"/>
       <c r="F869" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F868" xr:uid="{2E0A50D4-15CB-43EB-8FAE-BEC5F3B95140}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -23263,14 +23433,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1778</v>
       </c>
@@ -23281,7 +23451,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1774</v>
       </c>
